--- a/Projeto Individual/Documentação/Planilhas/Cruzadinhas.xlsx
+++ b/Projeto Individual/Documentação/Planilhas/Cruzadinhas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/993840d4072b05f3/Área de Trabalho/Taste_Talks/Projeto Individual/Documentação/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1648" documentId="11_AD4D361C20488DEA4E38A08E9C9B5B285BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6789F9B9-4E16-4D66-9C34-4E9BCC881918}"/>
+  <xr:revisionPtr revIDLastSave="1695" documentId="11_AD4D361C20488DEA4E38A08E9C9B5B285BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC87532E-D261-44D8-AFB5-CC669AEEB082}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Itália" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="48">
   <si>
     <t>B</t>
   </si>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,13 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,22 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,6 +468,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,13 +739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView zoomScale="86" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="6.5703125" customWidth="1"/>
+    <col min="1" max="27" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1211,52 +1197,52 @@
       <c r="K6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="2">
         <v>146</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="2">
         <v>147</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="2">
         <v>148</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="2">
         <v>149</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="2">
         <v>150</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="2">
         <v>151</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="2">
         <v>152</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="2">
         <v>153</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="2">
         <v>154</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="2">
         <v>155</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="2">
         <v>156</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="2">
         <v>157</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="2">
         <v>158</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="2">
         <v>159</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="2">
         <v>160</v>
       </c>
     </row>
@@ -1273,7 +1259,7 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="2">
         <v>165</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1306,40 +1292,40 @@
       <c r="O7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="2">
         <v>176</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="2">
         <v>177</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="2">
         <v>178</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="2">
         <v>179</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="2">
         <v>180</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="2">
         <v>181</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="2">
         <v>182</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="2">
         <v>183</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="2">
         <v>184</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="2">
         <v>185</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="2">
         <v>186</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="2">
         <v>187</v>
       </c>
     </row>
@@ -1472,40 +1458,40 @@
       <c r="O9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="2">
         <v>230</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="2">
         <v>231</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="2">
         <v>232</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="2">
         <v>233</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="2">
         <v>234</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="2">
         <v>235</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="2">
         <v>236</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="2">
         <v>237</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="2">
         <v>238</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="2">
         <v>239</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="2">
         <v>240</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="2">
         <v>241</v>
       </c>
     </row>
@@ -1685,34 +1671,34 @@
       <c r="C12" s="2">
         <v>298</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="2">
         <v>300</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="2">
         <v>301</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="2">
         <v>303</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="2">
         <v>304</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="2">
         <v>305</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="2">
         <v>307</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="2">
         <v>308</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -1727,34 +1713,34 @@
       <c r="Q12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="2">
         <v>314</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="2">
         <v>315</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="2">
         <v>316</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="2">
         <v>317</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="2">
         <v>318</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="2">
         <v>319</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="2">
         <v>320</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="2">
         <v>322</v>
       </c>
     </row>
@@ -1801,7 +1787,7 @@
       <c r="N13" s="2">
         <v>336</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="2">
@@ -1920,7 +1906,7 @@
       <c r="Z14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="2">
         <v>376</v>
       </c>
     </row>
@@ -2083,7 +2069,7 @@
       <c r="Y16" s="2">
         <v>428</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Z16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="AA16" s="2">
@@ -2602,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD4E83D-BDE9-4E76-AFF8-2E85CEBE660C}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
@@ -3388,7 +3374,7 @@
       <c r="B11" s="2">
         <v>247</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2">
@@ -3625,13 +3611,13 @@
       <c r="D14" s="2">
         <v>322</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2">
         <v>324</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2">
@@ -4132,7 +4118,7 @@
       <c r="S20" s="2">
         <v>487</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="U20" s="2">
@@ -4238,7 +4224,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,1998 +4233,1998 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+      <c r="A1" s="11">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="11">
         <v>10</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="11">
         <v>12</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="11">
         <v>13</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="11">
         <v>14</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="11">
         <v>15</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="11">
         <v>18</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="11">
         <v>19</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="11">
         <v>20</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="11">
         <v>21</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="11">
         <v>22</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="11">
         <v>23</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="11">
         <v>24</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <v>38</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <v>39</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <v>40</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>41</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>42</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <v>43</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="11">
         <v>44</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="11">
         <v>45</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="11">
         <v>46</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="11">
         <v>47</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="11">
         <v>48</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="11">
         <v>49</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="11">
         <v>50</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="11">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>52</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>53</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>56</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>57</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>59</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>61</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>62</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <v>63</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>64</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>65</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>66</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>67</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>68</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <v>69</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="11">
         <v>70</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="11">
         <v>71</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="11">
         <v>72</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="11">
         <v>73</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="11">
         <v>74</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="11">
         <v>75</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="11">
         <v>76</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="11">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>78</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>79</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>80</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>82</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>83</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13">
+        <v>85</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="13">
+        <v>87</v>
+      </c>
+      <c r="K4" s="13">
+        <v>88</v>
+      </c>
+      <c r="L4" s="13">
+        <v>89</v>
+      </c>
+      <c r="M4" s="13">
+        <v>90</v>
+      </c>
+      <c r="N4" s="14">
+        <v>91</v>
+      </c>
+      <c r="O4" s="11">
+        <v>92</v>
+      </c>
+      <c r="P4" s="11">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>94</v>
+      </c>
+      <c r="R4" s="11">
+        <v>95</v>
+      </c>
+      <c r="S4" s="11">
+        <v>96</v>
+      </c>
+      <c r="T4" s="11">
+        <v>97</v>
+      </c>
+      <c r="U4" s="11">
+        <v>98</v>
+      </c>
+      <c r="V4" s="11">
+        <v>99</v>
+      </c>
+      <c r="W4" s="11">
+        <v>100</v>
+      </c>
+      <c r="X4" s="11">
+        <v>101</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>104</v>
+      </c>
+      <c r="B5" s="11">
+        <v>105</v>
+      </c>
+      <c r="C5" s="11">
+        <v>106</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11">
+        <v>108</v>
+      </c>
+      <c r="F5" s="11">
+        <v>109</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11">
+        <v>111</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="11">
+        <v>113</v>
+      </c>
+      <c r="K5" s="11">
+        <v>114</v>
+      </c>
+      <c r="L5" s="11">
+        <v>115</v>
+      </c>
+      <c r="M5" s="11">
+        <v>116</v>
+      </c>
+      <c r="N5" s="11">
+        <v>117</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="11">
+        <v>123</v>
+      </c>
+      <c r="U5" s="11">
+        <v>124</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="11">
+        <v>126</v>
+      </c>
+      <c r="X5" s="11">
+        <v>127</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>128</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>130</v>
+      </c>
+      <c r="B6" s="11">
+        <v>131</v>
+      </c>
+      <c r="C6" s="11">
+        <v>132</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11">
+        <v>134</v>
+      </c>
+      <c r="F6" s="11">
+        <v>135</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11">
+        <v>137</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="P6" s="11">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>146</v>
+      </c>
+      <c r="R6" s="11">
+        <v>147</v>
+      </c>
+      <c r="S6" s="11">
+        <v>148</v>
+      </c>
+      <c r="T6" s="11">
+        <v>149</v>
+      </c>
+      <c r="U6" s="11">
+        <v>150</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="11">
+        <v>152</v>
+      </c>
+      <c r="X6" s="11">
+        <v>153</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>156</v>
+      </c>
+      <c r="B7" s="11">
+        <v>157</v>
+      </c>
+      <c r="C7" s="11">
+        <v>158</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11">
+        <v>160</v>
+      </c>
+      <c r="F7" s="11">
+        <v>161</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11">
+        <v>163</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11">
+        <v>165</v>
+      </c>
+      <c r="K7" s="11">
+        <v>166</v>
+      </c>
+      <c r="L7" s="11">
+        <v>167</v>
+      </c>
+      <c r="M7" s="11">
+        <v>168</v>
+      </c>
+      <c r="N7" s="11">
+        <v>169</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="11">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>172</v>
+      </c>
+      <c r="R7" s="11">
+        <v>173</v>
+      </c>
+      <c r="S7" s="11">
+        <v>174</v>
+      </c>
+      <c r="T7" s="11">
+        <v>175</v>
+      </c>
+      <c r="U7" s="11">
+        <v>176</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="11">
+        <v>178</v>
+      </c>
+      <c r="X7" s="11">
+        <v>179</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>180</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>182</v>
+      </c>
+      <c r="B8" s="11">
+        <v>183</v>
+      </c>
+      <c r="C8" s="11">
+        <v>184</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="11">
+        <v>186</v>
+      </c>
+      <c r="F8" s="11">
+        <v>187</v>
+      </c>
+      <c r="G8" s="11">
+        <v>188</v>
+      </c>
+      <c r="H8" s="11">
+        <v>189</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="11">
+        <v>191</v>
+      </c>
+      <c r="K8" s="11">
+        <v>192</v>
+      </c>
+      <c r="L8" s="11">
+        <v>193</v>
+      </c>
+      <c r="M8" s="11">
+        <v>194</v>
+      </c>
+      <c r="N8" s="11">
+        <v>195</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="11">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>198</v>
+      </c>
+      <c r="R8" s="11">
+        <v>199</v>
+      </c>
+      <c r="S8" s="11">
+        <v>200</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="11">
+        <v>202</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="11">
+        <v>204</v>
+      </c>
+      <c r="X8" s="11">
+        <v>205</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>206</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>208</v>
+      </c>
+      <c r="B9" s="11">
+        <v>209</v>
+      </c>
+      <c r="C9" s="11">
+        <v>210</v>
+      </c>
+      <c r="D9" s="11">
+        <v>211</v>
+      </c>
+      <c r="E9" s="11">
+        <v>212</v>
+      </c>
+      <c r="F9" s="11">
+        <v>213</v>
+      </c>
+      <c r="G9" s="11">
+        <v>214</v>
+      </c>
+      <c r="H9" s="11">
+        <v>215</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="11">
+        <v>217</v>
+      </c>
+      <c r="K9" s="11">
+        <v>218</v>
+      </c>
+      <c r="L9" s="11">
+        <v>219</v>
+      </c>
+      <c r="M9" s="11">
+        <v>220</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="11">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>224</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="11">
+        <v>230</v>
+      </c>
+      <c r="X9" s="11">
+        <v>231</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>232</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>234</v>
+      </c>
+      <c r="B10" s="11">
+        <v>235</v>
+      </c>
+      <c r="C10" s="11">
+        <v>236</v>
+      </c>
+      <c r="D10" s="11">
+        <v>237</v>
+      </c>
+      <c r="E10" s="11">
+        <v>238</v>
+      </c>
+      <c r="F10" s="11">
+        <v>239</v>
+      </c>
+      <c r="G10" s="11">
+        <v>240</v>
+      </c>
+      <c r="H10" s="11">
+        <v>241</v>
+      </c>
+      <c r="I10" s="11">
+        <v>242</v>
+      </c>
+      <c r="J10" s="11">
+        <v>243</v>
+      </c>
+      <c r="K10" s="11">
+        <v>244</v>
+      </c>
+      <c r="L10" s="11">
+        <v>245</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="11">
+        <v>251</v>
+      </c>
+      <c r="S10" s="11">
+        <v>252</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="11">
+        <v>254</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="11">
+        <v>256</v>
+      </c>
+      <c r="X10" s="11">
+        <v>257</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>258</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>260</v>
+      </c>
+      <c r="B11" s="11">
+        <v>261</v>
+      </c>
+      <c r="C11" s="11">
+        <v>262</v>
+      </c>
+      <c r="D11" s="11">
+        <v>263</v>
+      </c>
+      <c r="E11" s="11">
+        <v>264</v>
+      </c>
+      <c r="F11" s="11">
+        <v>265</v>
+      </c>
+      <c r="G11" s="11">
+        <v>266</v>
+      </c>
+      <c r="H11" s="11">
+        <v>267</v>
+      </c>
+      <c r="I11" s="11">
+        <v>268</v>
+      </c>
+      <c r="J11" s="11">
+        <v>269</v>
+      </c>
+      <c r="K11" s="11">
+        <v>270</v>
+      </c>
+      <c r="L11" s="11">
+        <v>271</v>
+      </c>
+      <c r="M11" s="11">
+        <v>272</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="O11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="11">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>276</v>
+      </c>
+      <c r="R11" s="11">
+        <v>277</v>
+      </c>
+      <c r="S11" s="11">
+        <v>278</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="11">
+        <v>282</v>
+      </c>
+      <c r="X11" s="11">
+        <v>283</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>284</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>286</v>
+      </c>
+      <c r="B12" s="11">
+        <v>287</v>
+      </c>
+      <c r="C12" s="11">
+        <v>288</v>
+      </c>
+      <c r="D12" s="11">
+        <v>289</v>
+      </c>
+      <c r="E12" s="11">
+        <v>290</v>
+      </c>
+      <c r="F12" s="11">
+        <v>291</v>
+      </c>
+      <c r="G12" s="11">
+        <v>292</v>
+      </c>
+      <c r="H12" s="11">
+        <v>293</v>
+      </c>
+      <c r="I12" s="11">
+        <v>294</v>
+      </c>
+      <c r="J12" s="11">
+        <v>295</v>
+      </c>
+      <c r="K12" s="11">
+        <v>296</v>
+      </c>
+      <c r="L12" s="11">
+        <v>297</v>
+      </c>
+      <c r="M12" s="11">
+        <v>298</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="11">
+        <v>300</v>
+      </c>
+      <c r="P12" s="11">
+        <v>301</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>302</v>
+      </c>
+      <c r="R12" s="11">
+        <v>303</v>
+      </c>
+      <c r="S12" s="11">
+        <v>304</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="11">
+        <v>306</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="11">
+        <v>308</v>
+      </c>
+      <c r="X12" s="11">
+        <v>309</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>310</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>312</v>
+      </c>
+      <c r="B13" s="11">
+        <v>313</v>
+      </c>
+      <c r="C13" s="11">
+        <v>314</v>
+      </c>
+      <c r="D13" s="11">
+        <v>315</v>
+      </c>
+      <c r="E13" s="11">
+        <v>316</v>
+      </c>
+      <c r="F13" s="11">
+        <v>317</v>
+      </c>
+      <c r="G13" s="11">
+        <v>318</v>
+      </c>
+      <c r="H13" s="11">
+        <v>319</v>
+      </c>
+      <c r="I13" s="11">
+        <v>320</v>
+      </c>
+      <c r="J13" s="11">
+        <v>321</v>
+      </c>
+      <c r="K13" s="11">
+        <v>322</v>
+      </c>
+      <c r="L13" s="11">
+        <v>323</v>
+      </c>
+      <c r="M13" s="11">
+        <v>324</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="11">
+        <v>326</v>
+      </c>
+      <c r="P13" s="11">
+        <v>327</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>328</v>
+      </c>
+      <c r="R13" s="11">
+        <v>329</v>
+      </c>
+      <c r="S13" s="11">
+        <v>330</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="11">
+        <v>332</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="11">
+        <v>334</v>
+      </c>
+      <c r="X13" s="11">
+        <v>335</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>336</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>338</v>
+      </c>
+      <c r="B14" s="11">
+        <v>339</v>
+      </c>
+      <c r="C14" s="11">
+        <v>340</v>
+      </c>
+      <c r="D14" s="11">
+        <v>341</v>
+      </c>
+      <c r="E14" s="11">
+        <v>342</v>
+      </c>
+      <c r="F14" s="11">
+        <v>343</v>
+      </c>
+      <c r="G14" s="11">
+        <v>344</v>
+      </c>
+      <c r="H14" s="11">
+        <v>345</v>
+      </c>
+      <c r="I14" s="11">
+        <v>346</v>
+      </c>
+      <c r="J14" s="11">
+        <v>347</v>
+      </c>
+      <c r="K14" s="11">
+        <v>348</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="11">
+        <v>360</v>
+      </c>
+      <c r="X14" s="11">
+        <v>361</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>362</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>364</v>
+      </c>
+      <c r="B15" s="11">
+        <v>365</v>
+      </c>
+      <c r="C15" s="11">
+        <v>366</v>
+      </c>
+      <c r="D15" s="11">
+        <v>367</v>
+      </c>
+      <c r="E15" s="11">
+        <v>368</v>
+      </c>
+      <c r="F15" s="11">
+        <v>369</v>
+      </c>
+      <c r="G15" s="11">
+        <v>370</v>
+      </c>
+      <c r="H15" s="11">
+        <v>371</v>
+      </c>
+      <c r="I15" s="11">
+        <v>372</v>
+      </c>
+      <c r="J15" s="11">
+        <v>373</v>
+      </c>
+      <c r="K15" s="11">
+        <v>374</v>
+      </c>
+      <c r="L15" s="11">
+        <v>375</v>
+      </c>
+      <c r="M15" s="11">
+        <v>376</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="11">
+        <v>378</v>
+      </c>
+      <c r="P15" s="11">
+        <v>379</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>380</v>
+      </c>
+      <c r="R15" s="11">
+        <v>381</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="11">
+        <v>384</v>
+      </c>
+      <c r="V15" s="11">
+        <v>385</v>
+      </c>
+      <c r="W15" s="11">
+        <v>386</v>
+      </c>
+      <c r="X15" s="11">
+        <v>387</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>388</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>390</v>
+      </c>
+      <c r="B16" s="11">
+        <v>391</v>
+      </c>
+      <c r="C16" s="11">
+        <v>392</v>
+      </c>
+      <c r="D16" s="11">
+        <v>393</v>
+      </c>
+      <c r="E16" s="11">
+        <v>394</v>
+      </c>
+      <c r="F16" s="11">
+        <v>395</v>
+      </c>
+      <c r="G16" s="11">
+        <v>396</v>
+      </c>
+      <c r="H16" s="11">
+        <v>397</v>
+      </c>
+      <c r="I16" s="11">
+        <v>398</v>
+      </c>
+      <c r="J16" s="11">
+        <v>399</v>
+      </c>
+      <c r="K16" s="11">
+        <v>400</v>
+      </c>
+      <c r="L16" s="11">
+        <v>401</v>
+      </c>
+      <c r="M16" s="11">
+        <v>402</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="11">
+        <v>404</v>
+      </c>
+      <c r="P16" s="11">
+        <v>405</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>406</v>
+      </c>
+      <c r="R16" s="11">
+        <v>407</v>
+      </c>
+      <c r="S16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="13">
-        <v>92</v>
-      </c>
-      <c r="P4" s="13">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>94</v>
-      </c>
-      <c r="R4" s="13">
-        <v>95</v>
-      </c>
-      <c r="S4" s="13">
-        <v>96</v>
-      </c>
-      <c r="T4" s="13">
-        <v>97</v>
-      </c>
-      <c r="U4" s="13">
-        <v>98</v>
-      </c>
-      <c r="V4" s="13">
-        <v>99</v>
-      </c>
-      <c r="W4" s="13">
-        <v>100</v>
-      </c>
-      <c r="X4" s="13">
-        <v>101</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>104</v>
-      </c>
-      <c r="B5" s="13">
-        <v>105</v>
-      </c>
-      <c r="C5" s="13">
-        <v>106</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="13">
-        <v>108</v>
-      </c>
-      <c r="F5" s="13">
-        <v>109</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13">
-        <v>111</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="13">
-        <v>113</v>
-      </c>
-      <c r="K5" s="13">
-        <v>114</v>
-      </c>
-      <c r="L5" s="13">
-        <v>115</v>
-      </c>
-      <c r="M5" s="13">
-        <v>116</v>
-      </c>
-      <c r="N5" s="13">
-        <v>117</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="13">
-        <v>123</v>
-      </c>
-      <c r="U5" s="13">
-        <v>124</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="13">
-        <v>126</v>
-      </c>
-      <c r="X5" s="13">
-        <v>127</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>130</v>
-      </c>
-      <c r="B6" s="13">
-        <v>131</v>
-      </c>
-      <c r="C6" s="13">
-        <v>132</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13">
-        <v>134</v>
-      </c>
-      <c r="F6" s="13">
-        <v>135</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="13">
-        <v>137</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="13">
-        <v>145</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>146</v>
-      </c>
-      <c r="R6" s="13">
-        <v>147</v>
-      </c>
-      <c r="S6" s="13">
-        <v>148</v>
-      </c>
-      <c r="T6" s="13">
-        <v>149</v>
-      </c>
-      <c r="U6" s="13">
-        <v>150</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="13">
-        <v>152</v>
-      </c>
-      <c r="X6" s="13">
-        <v>153</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>154</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>156</v>
-      </c>
-      <c r="B7" s="13">
-        <v>157</v>
-      </c>
-      <c r="C7" s="13">
-        <v>158</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13">
-        <v>160</v>
-      </c>
-      <c r="F7" s="13">
-        <v>161</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13">
-        <v>163</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="13">
-        <v>165</v>
-      </c>
-      <c r="K7" s="13">
-        <v>166</v>
-      </c>
-      <c r="L7" s="13">
-        <v>167</v>
-      </c>
-      <c r="M7" s="13">
-        <v>168</v>
-      </c>
-      <c r="N7" s="13">
-        <v>169</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="13">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>172</v>
-      </c>
-      <c r="R7" s="13">
-        <v>173</v>
-      </c>
-      <c r="S7" s="13">
-        <v>174</v>
-      </c>
-      <c r="T7" s="13">
-        <v>175</v>
-      </c>
-      <c r="U7" s="13">
-        <v>176</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="13">
-        <v>178</v>
-      </c>
-      <c r="X7" s="13">
-        <v>179</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>180</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>182</v>
-      </c>
-      <c r="B8" s="13">
-        <v>183</v>
-      </c>
-      <c r="C8" s="13">
-        <v>184</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13">
-        <v>186</v>
-      </c>
-      <c r="F8" s="13">
-        <v>187</v>
-      </c>
-      <c r="G8" s="13">
-        <v>188</v>
-      </c>
-      <c r="H8" s="13">
-        <v>189</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="13">
-        <v>191</v>
-      </c>
-      <c r="K8" s="13">
-        <v>192</v>
-      </c>
-      <c r="L8" s="13">
-        <v>193</v>
-      </c>
-      <c r="M8" s="13">
-        <v>194</v>
-      </c>
-      <c r="N8" s="13">
-        <v>195</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="13">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>198</v>
-      </c>
-      <c r="R8" s="13">
-        <v>199</v>
-      </c>
-      <c r="S8" s="13">
-        <v>200</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="13">
-        <v>202</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="13">
-        <v>204</v>
-      </c>
-      <c r="X8" s="13">
-        <v>205</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>206</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>208</v>
-      </c>
-      <c r="B9" s="13">
-        <v>209</v>
-      </c>
-      <c r="C9" s="13">
-        <v>210</v>
-      </c>
-      <c r="D9" s="13">
-        <v>211</v>
-      </c>
-      <c r="E9" s="13">
-        <v>212</v>
-      </c>
-      <c r="F9" s="13">
-        <v>213</v>
-      </c>
-      <c r="G9" s="13">
-        <v>214</v>
-      </c>
-      <c r="H9" s="13">
-        <v>215</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="13">
-        <v>217</v>
-      </c>
-      <c r="K9" s="13">
-        <v>218</v>
-      </c>
-      <c r="L9" s="13">
-        <v>219</v>
-      </c>
-      <c r="M9" s="13">
-        <v>220</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="13">
-        <v>223</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>224</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="13">
-        <v>230</v>
-      </c>
-      <c r="X9" s="13">
-        <v>231</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>232</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>234</v>
-      </c>
-      <c r="B10" s="13">
-        <v>235</v>
-      </c>
-      <c r="C10" s="13">
-        <v>236</v>
-      </c>
-      <c r="D10" s="13">
-        <v>237</v>
-      </c>
-      <c r="E10" s="13">
-        <v>238</v>
-      </c>
-      <c r="F10" s="13">
-        <v>239</v>
-      </c>
-      <c r="G10" s="13">
-        <v>240</v>
-      </c>
-      <c r="H10" s="13">
-        <v>241</v>
-      </c>
-      <c r="I10" s="13">
-        <v>242</v>
-      </c>
-      <c r="J10" s="13">
-        <v>243</v>
-      </c>
-      <c r="K10" s="13">
-        <v>244</v>
-      </c>
-      <c r="L10" s="13">
-        <v>245</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="13">
-        <v>251</v>
-      </c>
-      <c r="S10" s="13">
-        <v>252</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="13">
-        <v>254</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" s="13">
-        <v>256</v>
-      </c>
-      <c r="X10" s="13">
-        <v>257</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>258</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>260</v>
-      </c>
-      <c r="B11" s="13">
-        <v>261</v>
-      </c>
-      <c r="C11" s="13">
-        <v>262</v>
-      </c>
-      <c r="D11" s="13">
-        <v>263</v>
-      </c>
-      <c r="E11" s="13">
-        <v>264</v>
-      </c>
-      <c r="F11" s="13">
-        <v>265</v>
-      </c>
-      <c r="G11" s="13">
-        <v>266</v>
-      </c>
-      <c r="H11" s="13">
-        <v>267</v>
-      </c>
-      <c r="I11" s="13">
-        <v>268</v>
-      </c>
-      <c r="J11" s="13">
-        <v>269</v>
-      </c>
-      <c r="K11" s="13">
-        <v>270</v>
-      </c>
-      <c r="L11" s="13">
-        <v>271</v>
-      </c>
-      <c r="M11" s="13">
-        <v>272</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="13">
-        <v>275</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>276</v>
-      </c>
-      <c r="R11" s="13">
-        <v>277</v>
-      </c>
-      <c r="S11" s="13">
-        <v>278</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="13">
-        <v>282</v>
-      </c>
-      <c r="X11" s="13">
-        <v>283</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>284</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>286</v>
-      </c>
-      <c r="B12" s="13">
-        <v>287</v>
-      </c>
-      <c r="C12" s="13">
-        <v>288</v>
-      </c>
-      <c r="D12" s="13">
-        <v>289</v>
-      </c>
-      <c r="E12" s="13">
-        <v>290</v>
-      </c>
-      <c r="F12" s="13">
-        <v>291</v>
-      </c>
-      <c r="G12" s="13">
-        <v>292</v>
-      </c>
-      <c r="H12" s="13">
-        <v>293</v>
-      </c>
-      <c r="I12" s="13">
-        <v>294</v>
-      </c>
-      <c r="J12" s="13">
-        <v>295</v>
-      </c>
-      <c r="K12" s="13">
-        <v>296</v>
-      </c>
-      <c r="L12" s="13">
-        <v>297</v>
-      </c>
-      <c r="M12" s="13">
-        <v>298</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="13">
-        <v>300</v>
-      </c>
-      <c r="P12" s="13">
-        <v>301</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>302</v>
-      </c>
-      <c r="R12" s="13">
-        <v>303</v>
-      </c>
-      <c r="S12" s="13">
-        <v>304</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="13">
-        <v>306</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="13">
-        <v>308</v>
-      </c>
-      <c r="X12" s="13">
-        <v>309</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>310</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>312</v>
-      </c>
-      <c r="B13" s="13">
-        <v>313</v>
-      </c>
-      <c r="C13" s="13">
-        <v>314</v>
-      </c>
-      <c r="D13" s="13">
-        <v>315</v>
-      </c>
-      <c r="E13" s="13">
-        <v>316</v>
-      </c>
-      <c r="F13" s="13">
-        <v>317</v>
-      </c>
-      <c r="G13" s="13">
-        <v>318</v>
-      </c>
-      <c r="H13" s="13">
-        <v>319</v>
-      </c>
-      <c r="I13" s="13">
-        <v>320</v>
-      </c>
-      <c r="J13" s="13">
-        <v>321</v>
-      </c>
-      <c r="K13" s="13">
-        <v>322</v>
-      </c>
-      <c r="L13" s="13">
-        <v>323</v>
-      </c>
-      <c r="M13" s="13">
-        <v>324</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="13">
-        <v>326</v>
-      </c>
-      <c r="P13" s="13">
-        <v>327</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>328</v>
-      </c>
-      <c r="R13" s="13">
-        <v>329</v>
-      </c>
-      <c r="S13" s="13">
-        <v>330</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="13">
-        <v>332</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" s="13">
-        <v>334</v>
-      </c>
-      <c r="X13" s="13">
-        <v>335</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>336</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>338</v>
-      </c>
-      <c r="B14" s="13">
-        <v>339</v>
-      </c>
-      <c r="C14" s="13">
-        <v>340</v>
-      </c>
-      <c r="D14" s="13">
-        <v>341</v>
-      </c>
-      <c r="E14" s="13">
-        <v>342</v>
-      </c>
-      <c r="F14" s="13">
-        <v>343</v>
-      </c>
-      <c r="G14" s="13">
-        <v>344</v>
-      </c>
-      <c r="H14" s="13">
-        <v>345</v>
-      </c>
-      <c r="I14" s="13">
-        <v>346</v>
-      </c>
-      <c r="J14" s="13">
-        <v>347</v>
-      </c>
-      <c r="K14" s="13">
-        <v>348</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="13">
-        <v>360</v>
-      </c>
-      <c r="X14" s="13">
-        <v>361</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>362</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>364</v>
-      </c>
-      <c r="B15" s="13">
-        <v>365</v>
-      </c>
-      <c r="C15" s="13">
-        <v>366</v>
-      </c>
-      <c r="D15" s="13">
-        <v>367</v>
-      </c>
-      <c r="E15" s="13">
-        <v>368</v>
-      </c>
-      <c r="F15" s="13">
-        <v>369</v>
-      </c>
-      <c r="G15" s="13">
-        <v>370</v>
-      </c>
-      <c r="H15" s="13">
-        <v>371</v>
-      </c>
-      <c r="I15" s="13">
-        <v>372</v>
-      </c>
-      <c r="J15" s="13">
-        <v>373</v>
-      </c>
-      <c r="K15" s="13">
-        <v>374</v>
-      </c>
-      <c r="L15" s="13">
-        <v>375</v>
-      </c>
-      <c r="M15" s="13">
-        <v>376</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="13">
-        <v>378</v>
-      </c>
-      <c r="P15" s="13">
-        <v>379</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>380</v>
-      </c>
-      <c r="R15" s="13">
-        <v>381</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="13">
-        <v>384</v>
-      </c>
-      <c r="V15" s="13">
-        <v>385</v>
-      </c>
-      <c r="W15" s="13">
-        <v>386</v>
-      </c>
-      <c r="X15" s="13">
-        <v>387</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>388</v>
-      </c>
-      <c r="Z15" s="13">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>390</v>
-      </c>
-      <c r="B16" s="13">
-        <v>391</v>
-      </c>
-      <c r="C16" s="13">
-        <v>392</v>
-      </c>
-      <c r="D16" s="13">
-        <v>393</v>
-      </c>
-      <c r="E16" s="13">
-        <v>394</v>
-      </c>
-      <c r="F16" s="13">
-        <v>395</v>
-      </c>
-      <c r="G16" s="13">
-        <v>396</v>
-      </c>
-      <c r="H16" s="13">
-        <v>397</v>
-      </c>
-      <c r="I16" s="13">
-        <v>398</v>
-      </c>
-      <c r="J16" s="13">
-        <v>399</v>
-      </c>
-      <c r="K16" s="13">
-        <v>400</v>
-      </c>
-      <c r="L16" s="13">
-        <v>401</v>
-      </c>
-      <c r="M16" s="13">
-        <v>402</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="13">
-        <v>404</v>
-      </c>
-      <c r="P16" s="13">
-        <v>405</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>406</v>
-      </c>
-      <c r="R16" s="13">
-        <v>407</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="13">
+      <c r="T16" s="11">
         <v>409</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="11">
         <v>410</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="11">
         <v>411</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="11">
         <v>412</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="11">
         <v>413</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="11">
         <v>414</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="11">
         <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>416</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>417</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>418</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>419</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>420</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>421</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <v>422</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>423</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <v>424</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>425</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="11">
         <v>426</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="11">
         <v>427</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="11">
         <v>428</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <v>429</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>430</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>431</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>432</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="11">
         <v>433</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="11">
         <v>435</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="11">
         <v>436</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="11">
         <v>437</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="11">
         <v>438</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="11">
         <v>439</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="11">
         <v>440</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="11">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>442</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>443</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>444</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>445</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>446</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>447</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>448</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>449</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>450</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>451</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>452</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>453</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>454</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="11">
         <v>455</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>456</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>457</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>458</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="11">
         <v>459</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>460</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="11">
         <v>461</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="11">
         <v>462</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="11">
         <v>463</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="11">
         <v>464</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="11">
         <v>465</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="11">
         <v>466</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="11">
         <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>468</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>469</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>470</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>471</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>472</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>473</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>474</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>475</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <v>476</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>477</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>478</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>479</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>480</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>481</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>482</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>483</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>484</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>485</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <v>486</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="11">
         <v>487</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="11">
         <v>488</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="11">
         <v>489</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="11">
         <v>490</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="11">
         <v>491</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y19" s="11">
         <v>492</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="Z19" s="11">
         <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6249,16 +6235,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2B51F0-15D0-4241-815F-0BBBA4D2E051}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.7109375" style="2" customWidth="1"/>
+    <col min="22" max="26" width="5.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1"/>
+    <col min="28" max="48" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -6322,25 +6311,10 @@
       <c r="U1" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>21</v>
-      </c>
-      <c r="W1" s="2">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>19</v>
@@ -6376,146 +6350,116 @@
         <v>39</v>
       </c>
       <c r="M2" s="2">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2">
         <v>38</v>
       </c>
-      <c r="N2" s="2">
+      <c r="S2" s="2">
         <v>39</v>
       </c>
-      <c r="O2" s="2">
+      <c r="T2" s="2">
         <v>40</v>
       </c>
-      <c r="P2" s="2">
+      <c r="U2" s="2">
         <v>41</v>
       </c>
-      <c r="Q2" s="2">
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>42</v>
-      </c>
-      <c r="R2" s="2">
-        <v>43</v>
-      </c>
-      <c r="S2" s="2">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2">
-        <v>47</v>
-      </c>
-      <c r="W2" s="2">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T3" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="U3" s="2">
-        <v>72</v>
-      </c>
-      <c r="V3" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" s="2">
-        <v>74</v>
-      </c>
-      <c r="X3" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>23</v>
@@ -6541,143 +6485,113 @@
       <c r="N4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="R4" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="T4" s="2">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="U4" s="2">
-        <v>98</v>
-      </c>
-      <c r="V4" s="2">
-        <v>99</v>
-      </c>
-      <c r="W4" s="2">
-        <v>100</v>
-      </c>
-      <c r="X4" s="2">
-        <v>101</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="2">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K5" s="2">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L5" s="2">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="M5" s="2">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R5" s="2">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="S5" s="2">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="T5" s="2">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="U5" s="2">
-        <v>124</v>
-      </c>
-      <c r="V5" s="2">
-        <v>125</v>
-      </c>
-      <c r="W5" s="2">
-        <v>126</v>
-      </c>
-      <c r="X5" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -6693,15 +6607,15 @@
         <v>39</v>
       </c>
       <c r="L6" s="2">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="M6" s="2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
@@ -6717,213 +6631,168 @@
         <v>23</v>
       </c>
       <c r="T6" s="2">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="U6" s="2">
-        <v>150</v>
-      </c>
-      <c r="V6" s="2">
-        <v>151</v>
-      </c>
-      <c r="W6" s="2">
-        <v>152</v>
-      </c>
-      <c r="X6" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I7" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="K7" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L7" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M7" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="N7" s="2">
-        <v>169</v>
-      </c>
-      <c r="O7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="R7" s="2">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="S7" s="2">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="T7" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="U7" s="2">
-        <v>176</v>
-      </c>
-      <c r="V7" s="2">
-        <v>177</v>
-      </c>
-      <c r="W7" s="2">
-        <v>178</v>
-      </c>
-      <c r="X7" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>182</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K8" s="2">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="L8" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="M8" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="N8" s="2">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="O8" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="P8" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="R8" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="S8" s="2">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="T8" s="2">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="U8" s="2">
-        <v>202</v>
-      </c>
-      <c r="V8" s="2">
-        <v>203</v>
-      </c>
-      <c r="W8" s="2">
-        <v>204</v>
-      </c>
-      <c r="X8" s="2">
-        <v>205</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B9" s="2">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -6936,472 +6805,382 @@
         <v>39</v>
       </c>
       <c r="M9" s="2">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N9" s="2">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="O9" s="2">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="P9" s="2">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="2">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="R9" s="2">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="S9" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="T9" s="2">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="U9" s="2">
-        <v>228</v>
-      </c>
-      <c r="V9" s="2">
-        <v>229</v>
-      </c>
-      <c r="W9" s="2">
-        <v>230</v>
-      </c>
-      <c r="X9" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="2">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="K10" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L10" s="2">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M10" s="2">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="N10" s="2">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="O10" s="2">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="P10" s="2">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="2">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="R10" s="2">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="S10" s="2">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="T10" s="2">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="U10" s="2">
-        <v>254</v>
-      </c>
-      <c r="V10" s="2">
-        <v>255</v>
-      </c>
-      <c r="W10" s="2">
-        <v>256</v>
-      </c>
-      <c r="X10" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="F11" s="2">
-        <v>265</v>
-      </c>
-      <c r="G11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="2">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="K11" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="L11" s="2">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="M11" s="2">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="N11" s="2">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="O11" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="P11" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="R11" s="2">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="S11" s="2">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="T11" s="2">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="U11" s="2">
-        <v>280</v>
-      </c>
-      <c r="V11" s="2">
-        <v>281</v>
-      </c>
-      <c r="W11" s="2">
-        <v>282</v>
-      </c>
-      <c r="X11" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B12" s="2">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="C12" s="2">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="G12" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="H12" s="2">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="2">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="K12" s="2">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="L12" s="2">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="M12" s="2">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="N12" s="2">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="O12" s="2">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="P12" s="2">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="2">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="R12" s="2">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="S12" s="2">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="T12" s="2">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="U12" s="2">
-        <v>306</v>
-      </c>
-      <c r="V12" s="2">
-        <v>307</v>
-      </c>
-      <c r="W12" s="2">
-        <v>308</v>
-      </c>
-      <c r="X12" s="2">
-        <v>309</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>310</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="E13" s="2">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F13" s="2">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="G13" s="2">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="H13" s="2">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="2">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="K13" s="2">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="L13" s="2">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="M13" s="2">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="N13" s="2">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="O13" s="2">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="P13" s="2">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="2">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="R13" s="2">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="S13" s="2">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="T13" s="2">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="U13" s="2">
-        <v>332</v>
-      </c>
-      <c r="V13" s="2">
-        <v>333</v>
-      </c>
-      <c r="W13" s="2">
-        <v>334</v>
-      </c>
-      <c r="X13" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="B14" s="2">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="C14" s="2">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="D14" s="2">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="E14" s="2">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="G14" s="2">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="H14" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="2">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="K14" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="L14" s="2">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="M14" s="2">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="N14" s="2">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="O14" s="2">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="P14" s="2">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="2">
-        <v>354</v>
+        <v>289</v>
       </c>
       <c r="R14" s="2">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="S14" s="2">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="T14" s="2">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="U14" s="2">
-        <v>358</v>
-      </c>
-      <c r="V14" s="2">
-        <v>359</v>
-      </c>
-      <c r="W14" s="2">
-        <v>360</v>
-      </c>
-      <c r="X14" s="2">
-        <v>361</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>362</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="B15" s="2">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="C15" s="2">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="D15" s="2">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="E15" s="2">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="F15" s="2">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="G15" s="2">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="H15" s="2">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>39</v>
@@ -7419,238 +7198,193 @@
         <v>39</v>
       </c>
       <c r="N15" s="2">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="O15" s="2">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="P15" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="2">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="R15" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="S15" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="T15" s="2">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="U15" s="2">
-        <v>384</v>
-      </c>
-      <c r="V15" s="2">
-        <v>385</v>
-      </c>
-      <c r="W15" s="2">
-        <v>386</v>
-      </c>
-      <c r="X15" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="B16" s="2">
-        <v>391</v>
+        <v>316</v>
       </c>
       <c r="C16" s="2">
-        <v>392</v>
+        <v>317</v>
       </c>
       <c r="D16" s="2">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="F16" s="2">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="G16" s="2">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="H16" s="2">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="I16" s="2">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="J16" s="2">
-        <v>399</v>
+        <v>324</v>
       </c>
       <c r="K16" s="2">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="2">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="N16" s="2">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="O16" s="2">
-        <v>404</v>
+        <v>329</v>
       </c>
       <c r="P16" s="2">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="2">
-        <v>406</v>
+        <v>331</v>
       </c>
       <c r="R16" s="2">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="S16" s="2">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="T16" s="2">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="U16" s="2">
-        <v>410</v>
-      </c>
-      <c r="V16" s="2">
-        <v>411</v>
-      </c>
-      <c r="W16" s="2">
-        <v>412</v>
-      </c>
-      <c r="X16" s="2">
-        <v>413</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>414</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="B17" s="2">
-        <v>417</v>
+        <v>337</v>
       </c>
       <c r="C17" s="2">
-        <v>418</v>
+        <v>338</v>
       </c>
       <c r="D17" s="2">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="E17" s="2">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="F17" s="2">
-        <v>421</v>
+        <v>341</v>
       </c>
       <c r="G17" s="2">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="H17" s="2">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="I17" s="2">
-        <v>424</v>
+        <v>344</v>
       </c>
       <c r="J17" s="2">
-        <v>425</v>
+        <v>345</v>
       </c>
       <c r="K17" s="2">
-        <v>426</v>
+        <v>346</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="2">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="N17" s="2">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="O17" s="2">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="P17" s="2">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="2">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="R17" s="2">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="S17" s="2">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="T17" s="2">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="U17" s="2">
-        <v>436</v>
-      </c>
-      <c r="V17" s="2">
-        <v>437</v>
-      </c>
-      <c r="W17" s="2">
-        <v>438</v>
-      </c>
-      <c r="X17" s="2">
-        <v>439</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>440</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="B18" s="2">
-        <v>443</v>
+        <v>358</v>
       </c>
       <c r="C18" s="2">
-        <v>444</v>
+        <v>359</v>
       </c>
       <c r="D18" s="2">
-        <v>445</v>
+        <v>360</v>
       </c>
       <c r="E18" s="2">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="F18" s="2">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="G18" s="2">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="H18" s="2">
-        <v>449</v>
+        <v>364</v>
       </c>
       <c r="I18" s="2">
-        <v>450</v>
+        <v>365</v>
       </c>
       <c r="J18" s="2">
-        <v>451</v>
+        <v>366</v>
       </c>
       <c r="K18" s="2">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>22</v>
@@ -7674,188 +7408,143 @@
         <v>39</v>
       </c>
       <c r="S18" s="2">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="T18" s="2">
-        <v>461</v>
+        <v>376</v>
       </c>
       <c r="U18" s="2">
-        <v>462</v>
-      </c>
-      <c r="V18" s="2">
-        <v>463</v>
-      </c>
-      <c r="W18" s="2">
-        <v>464</v>
-      </c>
-      <c r="X18" s="2">
-        <v>465</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="B19" s="2">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="C19" s="2">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="D19" s="2">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="E19" s="2">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="F19" s="2">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="G19" s="2">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="H19" s="2">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="I19" s="2">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="J19" s="2">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="K19" s="2">
-        <v>478</v>
-      </c>
-      <c r="L19" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="2">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="N19" s="2">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="O19" s="2">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="P19" s="2">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="2">
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="R19" s="2">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="S19" s="2">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="T19" s="2">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="U19" s="2">
-        <v>488</v>
-      </c>
-      <c r="V19" s="2">
-        <v>489</v>
-      </c>
-      <c r="W19" s="2">
-        <v>490</v>
-      </c>
-      <c r="X19" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="B20" s="2">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="C20" s="2">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="D20" s="2">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="E20" s="2">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="F20" s="2">
-        <v>499</v>
+        <v>404</v>
       </c>
       <c r="G20" s="2">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="H20" s="2">
-        <v>501</v>
+        <v>406</v>
       </c>
       <c r="I20" s="2">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="J20" s="2">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="K20" s="2">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="L20" s="2">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="M20" s="2">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="N20" s="2">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="O20" s="2">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="P20" s="2">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="2">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="R20" s="2">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="S20" s="2">
-        <v>512</v>
+        <v>417</v>
       </c>
       <c r="T20" s="2">
-        <v>513</v>
+        <v>418</v>
       </c>
       <c r="U20" s="2">
-        <v>514</v>
-      </c>
-      <c r="V20" s="2">
-        <v>515</v>
-      </c>
-      <c r="W20" s="2">
-        <v>516</v>
-      </c>
-      <c r="X20" s="2">
-        <v>517</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>518</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>519</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -7880,7 +7569,7 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
       <c r="D1" s="2">
@@ -7996,7 +7685,7 @@
       <c r="B3" s="2">
         <v>33</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="2">
         <v>34</v>
       </c>
       <c r="D3" s="2">
@@ -8054,7 +7743,7 @@
       <c r="B4" s="2">
         <v>49</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2">
@@ -8112,7 +7801,7 @@
       <c r="B5" s="2">
         <v>65</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="2">
         <v>66</v>
       </c>
       <c r="D5" s="2">
@@ -8228,7 +7917,7 @@
       <c r="B7" s="2">
         <v>97</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="2">
         <v>98</v>
       </c>
       <c r="D7" s="2">
@@ -8292,7 +7981,7 @@
       <c r="D8" s="2">
         <v>115</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -8310,7 +7999,7 @@
       <c r="J8" s="2">
         <v>121</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="2">
@@ -8319,7 +8008,7 @@
       <c r="M8" s="2">
         <v>124</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O8" s="2">
@@ -8377,7 +8066,7 @@
       <c r="M9" s="2">
         <v>140</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="2">
         <v>141</v>
       </c>
       <c r="O9" s="2">
@@ -8585,7 +8274,7 @@
       <c r="E13" s="2">
         <v>196</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="2">
@@ -9368,7 +9057,7 @@
       <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="2">
@@ -9770,7 +9459,7 @@
       <c r="G8" s="2">
         <v>146</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="2">
@@ -9891,7 +9580,7 @@
       <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -9900,7 +9589,7 @@
       <c r="E10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="2">
@@ -9930,7 +9619,7 @@
       <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
@@ -9989,7 +9678,7 @@
       <c r="L11" s="2">
         <v>211</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="2">
@@ -10036,7 +9725,7 @@
       <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -10240,7 +9929,7 @@
       <c r="E15" s="2">
         <v>284</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="2">
@@ -10338,7 +10027,7 @@
       <c r="O16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="5" t="s">
@@ -10474,7 +10163,7 @@
       <c r="O18" s="2">
         <v>354</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q18" s="2">
@@ -10941,11 +10630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7603535F-09F8-42B0-95E3-5CF2DB572440}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="5.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
@@ -11269,7 +10961,7 @@
       <c r="O5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="2">
@@ -11311,7 +11003,7 @@
       <c r="F6" s="2">
         <v>115</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -11437,7 +11129,7 @@
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -11452,7 +11144,7 @@
       <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="2">
@@ -11506,7 +11198,7 @@
       <c r="B9" s="2">
         <v>177</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -11614,7 +11306,7 @@
       <c r="O10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
@@ -11674,7 +11366,7 @@
       <c r="L11" s="2">
         <v>231</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="2">
@@ -11728,7 +11420,7 @@
       <c r="G12" s="2">
         <v>248</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="2">
@@ -11785,7 +11477,7 @@
       <c r="C13" s="2">
         <v>266</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="2">
@@ -11818,7 +11510,7 @@
       <c r="N13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="28" t="s">
+      <c r="O13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -12094,7 +11786,7 @@
       <c r="N17" s="2">
         <v>365</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="P17" s="2">

--- a/Projeto Individual/Documentação/Planilhas/Cruzadinhas.xlsx
+++ b/Projeto Individual/Documentação/Planilhas/Cruzadinhas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/993840d4072b05f3/Área de Trabalho/Taste_Talks/Projeto Individual/Documentação/Planilhas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/993840d4072b05f3/Área de Trabalho/PI/Versao-GitHub/Taste_Talks/Projeto Individual/Documentação/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1695" documentId="11_AD4D361C20488DEA4E38A08E9C9B5B285BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC87532E-D261-44D8-AFB5-CC669AEEB082}"/>
+  <xr:revisionPtr revIDLastSave="1851" documentId="11_AD4D361C20488DEA4E38A08E9C9B5B285BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33BC9322-C5FC-4599-A733-559F7880835E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Itália" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Egito" sheetId="5" r:id="rId5"/>
     <sheet name="Brasil" sheetId="6" r:id="rId6"/>
     <sheet name="Arábia" sheetId="7" r:id="rId7"/>
+    <sheet name="EUA" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -370,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,6 +449,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4221,10 +4258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E24F80-86AF-4794-A215-D3C32D5DC518}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W38" sqref="W21:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,453 +5815,1406 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5</v>
+      </c>
+      <c r="G21" s="11">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11">
+        <v>7</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8</v>
+      </c>
+      <c r="J21" s="11">
+        <v>9</v>
+      </c>
+      <c r="K21" s="11">
+        <v>10</v>
+      </c>
+      <c r="L21" s="11">
+        <v>11</v>
+      </c>
+      <c r="M21" s="11">
+        <v>12</v>
+      </c>
+      <c r="N21" s="11">
+        <v>13</v>
+      </c>
+      <c r="O21" s="11">
+        <v>14</v>
+      </c>
+      <c r="P21" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>16</v>
+      </c>
+      <c r="R21" s="11">
+        <v>17</v>
+      </c>
+      <c r="S21" s="11">
+        <v>18</v>
+      </c>
+      <c r="T21" s="11">
+        <v>19</v>
+      </c>
+      <c r="U21" s="11">
+        <v>20</v>
+      </c>
+      <c r="V21" s="11">
+        <v>21</v>
+      </c>
+      <c r="W21" s="11">
+        <v>22</v>
+      </c>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>23</v>
+      </c>
+      <c r="B22" s="26">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13">
+        <v>25</v>
+      </c>
+      <c r="D22" s="27">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13">
+        <v>27</v>
+      </c>
+      <c r="F22" s="13">
+        <v>28</v>
+      </c>
+      <c r="G22" s="27">
+        <v>29</v>
+      </c>
+      <c r="H22" s="13">
+        <v>30</v>
+      </c>
+      <c r="I22" s="27">
+        <v>31</v>
+      </c>
+      <c r="J22" s="13">
+        <v>32</v>
+      </c>
+      <c r="K22" s="13">
+        <v>33</v>
+      </c>
+      <c r="L22" s="14">
+        <v>34</v>
+      </c>
+      <c r="M22" s="11">
+        <v>35</v>
+      </c>
+      <c r="N22" s="11">
+        <v>36</v>
+      </c>
+      <c r="O22" s="11">
+        <v>37</v>
+      </c>
+      <c r="P22" s="11">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>39</v>
+      </c>
+      <c r="R22" s="11">
+        <v>40</v>
+      </c>
+      <c r="S22" s="11">
+        <v>41</v>
+      </c>
+      <c r="T22" s="11">
+        <v>42</v>
+      </c>
+      <c r="U22" s="11">
+        <v>43</v>
+      </c>
+      <c r="V22" s="11">
+        <v>44</v>
+      </c>
+      <c r="W22" s="11">
+        <v>45</v>
+      </c>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>46</v>
+      </c>
+      <c r="B23" s="11">
+        <v>47</v>
+      </c>
+      <c r="C23" s="11">
+        <v>48</v>
+      </c>
+      <c r="D23" s="16">
+        <v>49</v>
+      </c>
+      <c r="E23" s="11">
+        <v>50</v>
+      </c>
+      <c r="F23" s="11">
+        <v>51</v>
+      </c>
+      <c r="G23" s="16">
+        <v>52</v>
+      </c>
+      <c r="H23" s="11">
+        <v>53</v>
+      </c>
+      <c r="I23" s="16">
+        <v>54</v>
+      </c>
+      <c r="J23" s="11">
+        <v>55</v>
+      </c>
+      <c r="K23" s="11">
+        <v>56</v>
+      </c>
+      <c r="L23" s="11">
+        <v>57</v>
+      </c>
+      <c r="M23" s="11">
+        <v>58</v>
+      </c>
+      <c r="N23" s="11">
+        <v>59</v>
+      </c>
+      <c r="O23" s="11">
+        <v>60</v>
+      </c>
+      <c r="P23" s="11">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>62</v>
+      </c>
+      <c r="R23" s="11">
+        <v>63</v>
+      </c>
+      <c r="S23" s="11">
+        <v>64</v>
+      </c>
+      <c r="T23" s="11">
+        <v>65</v>
+      </c>
+      <c r="U23" s="11">
+        <v>66</v>
+      </c>
+      <c r="V23" s="11">
+        <v>67</v>
+      </c>
+      <c r="W23" s="11">
+        <v>68</v>
+      </c>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>69</v>
+      </c>
+      <c r="B24" s="11">
+        <v>70</v>
+      </c>
+      <c r="C24" s="11">
+        <v>71</v>
+      </c>
+      <c r="D24" s="16">
+        <v>72</v>
+      </c>
+      <c r="E24" s="11">
+        <v>73</v>
+      </c>
+      <c r="F24" s="11">
+        <v>74</v>
+      </c>
+      <c r="G24" s="27">
+        <v>75</v>
+      </c>
+      <c r="H24" s="13">
+        <v>76</v>
+      </c>
+      <c r="I24" s="15">
+        <v>77</v>
+      </c>
+      <c r="J24" s="13">
+        <v>78</v>
+      </c>
+      <c r="K24" s="13">
+        <v>79</v>
+      </c>
+      <c r="L24" s="13">
+        <v>80</v>
+      </c>
+      <c r="M24" s="13">
+        <v>81</v>
+      </c>
+      <c r="N24" s="14">
+        <v>82</v>
+      </c>
+      <c r="O24" s="11">
+        <v>83</v>
+      </c>
+      <c r="P24" s="11">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>85</v>
+      </c>
+      <c r="R24" s="11">
+        <v>86</v>
+      </c>
+      <c r="S24" s="11">
+        <v>87</v>
+      </c>
+      <c r="T24" s="11">
+        <v>88</v>
+      </c>
+      <c r="U24" s="11">
+        <v>89</v>
+      </c>
+      <c r="V24" s="11">
+        <v>90</v>
+      </c>
+      <c r="W24" s="11">
+        <v>91</v>
+      </c>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>92</v>
+      </c>
+      <c r="B25" s="11">
+        <v>93</v>
+      </c>
+      <c r="C25" s="11">
+        <v>94</v>
+      </c>
+      <c r="D25" s="16">
+        <v>95</v>
+      </c>
+      <c r="E25" s="11">
+        <v>96</v>
+      </c>
+      <c r="F25" s="11">
+        <v>97</v>
+      </c>
+      <c r="G25" s="16">
+        <v>98</v>
+      </c>
+      <c r="H25" s="11">
+        <v>99</v>
+      </c>
+      <c r="I25" s="16">
+        <v>100</v>
+      </c>
+      <c r="J25" s="11">
+        <v>101</v>
+      </c>
+      <c r="K25" s="11">
+        <v>102</v>
+      </c>
+      <c r="L25" s="11">
+        <v>103</v>
+      </c>
+      <c r="M25" s="11">
+        <v>104</v>
+      </c>
+      <c r="N25" s="11">
+        <v>105</v>
+      </c>
+      <c r="O25" s="27">
+        <v>106</v>
+      </c>
+      <c r="P25" s="13">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>108</v>
+      </c>
+      <c r="R25" s="13">
+        <v>109</v>
+      </c>
+      <c r="S25" s="14">
+        <v>110</v>
+      </c>
+      <c r="T25" s="11">
+        <v>111</v>
+      </c>
+      <c r="U25" s="11">
+        <v>112</v>
+      </c>
+      <c r="V25" s="28">
+        <v>113</v>
+      </c>
+      <c r="W25" s="11">
+        <v>114</v>
+      </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>115</v>
+      </c>
+      <c r="B26" s="11">
+        <v>116</v>
+      </c>
+      <c r="C26" s="11">
+        <v>117</v>
+      </c>
+      <c r="D26" s="16">
+        <v>118</v>
+      </c>
+      <c r="E26" s="11">
+        <v>119</v>
+      </c>
+      <c r="F26" s="11">
+        <v>120</v>
+      </c>
+      <c r="G26" s="16">
+        <v>121</v>
+      </c>
+      <c r="H26" s="11">
+        <v>122</v>
+      </c>
+      <c r="I26" s="27">
+        <v>123</v>
+      </c>
+      <c r="J26" s="13">
+        <v>124</v>
+      </c>
+      <c r="K26" s="13">
+        <v>125</v>
+      </c>
+      <c r="L26" s="13">
+        <v>126</v>
+      </c>
+      <c r="M26" s="13">
+        <v>127</v>
+      </c>
+      <c r="N26" s="13">
+        <v>128</v>
+      </c>
+      <c r="O26" s="17">
+        <v>129</v>
+      </c>
+      <c r="P26" s="11">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>131</v>
+      </c>
+      <c r="R26" s="11">
+        <v>132</v>
+      </c>
+      <c r="S26" s="11">
+        <v>133</v>
+      </c>
+      <c r="T26" s="11">
+        <v>134</v>
+      </c>
+      <c r="U26" s="11">
+        <v>135</v>
+      </c>
+      <c r="V26" s="16">
+        <v>136</v>
+      </c>
+      <c r="W26" s="11">
+        <v>137</v>
+      </c>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>138</v>
+      </c>
+      <c r="B27" s="11">
+        <v>139</v>
+      </c>
+      <c r="C27" s="11">
+        <v>140</v>
+      </c>
+      <c r="D27" s="16">
+        <v>141</v>
+      </c>
+      <c r="E27" s="11">
+        <v>142</v>
+      </c>
+      <c r="F27" s="11">
+        <v>143</v>
+      </c>
+      <c r="G27" s="17">
+        <v>144</v>
+      </c>
+      <c r="H27" s="11">
+        <v>145</v>
+      </c>
+      <c r="I27" s="16">
+        <v>146</v>
+      </c>
+      <c r="J27" s="11">
+        <v>147</v>
+      </c>
+      <c r="K27" s="11">
+        <v>148</v>
+      </c>
+      <c r="L27" s="11">
+        <v>149</v>
+      </c>
+      <c r="M27" s="11">
+        <v>150</v>
+      </c>
+      <c r="N27" s="11">
+        <v>151</v>
+      </c>
+      <c r="O27" s="16">
+        <v>152</v>
+      </c>
+      <c r="P27" s="11">
+        <v>153</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>154</v>
+      </c>
+      <c r="R27" s="11">
+        <v>155</v>
+      </c>
+      <c r="S27" s="11">
+        <v>156</v>
+      </c>
+      <c r="T27" s="11">
+        <v>157</v>
+      </c>
+      <c r="U27" s="11">
+        <v>158</v>
+      </c>
+      <c r="V27" s="16">
+        <v>159</v>
+      </c>
+      <c r="W27" s="11">
+        <v>160</v>
+      </c>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>161</v>
+      </c>
+      <c r="B28" s="11">
+        <v>162</v>
+      </c>
+      <c r="C28" s="11">
+        <v>163</v>
+      </c>
+      <c r="D28" s="17">
+        <v>164</v>
+      </c>
+      <c r="E28" s="11">
+        <v>165</v>
+      </c>
+      <c r="F28" s="11">
+        <v>166</v>
+      </c>
+      <c r="G28" s="11">
+        <v>167</v>
+      </c>
+      <c r="H28" s="11">
+        <v>168</v>
+      </c>
+      <c r="I28" s="16">
+        <v>169</v>
+      </c>
+      <c r="J28" s="11">
+        <v>170</v>
+      </c>
+      <c r="K28" s="11">
+        <v>171</v>
+      </c>
+      <c r="L28" s="11">
+        <v>172</v>
+      </c>
+      <c r="M28" s="11">
+        <v>173</v>
+      </c>
+      <c r="N28" s="11">
+        <v>174</v>
+      </c>
+      <c r="O28" s="16">
+        <v>175</v>
+      </c>
+      <c r="P28" s="11">
+        <v>176</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>177</v>
+      </c>
+      <c r="R28" s="11">
+        <v>178</v>
+      </c>
+      <c r="S28" s="11">
+        <v>179</v>
+      </c>
+      <c r="T28" s="28">
+        <v>180</v>
+      </c>
+      <c r="U28" s="11">
+        <v>181</v>
+      </c>
+      <c r="V28" s="16">
+        <v>182</v>
+      </c>
+      <c r="W28" s="11">
+        <v>183</v>
+      </c>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>184</v>
+      </c>
+      <c r="B29" s="11">
+        <v>185</v>
+      </c>
+      <c r="C29" s="11">
+        <v>186</v>
+      </c>
+      <c r="D29" s="11">
+        <v>187</v>
+      </c>
+      <c r="E29" s="11">
+        <v>188</v>
+      </c>
+      <c r="F29" s="11">
+        <v>189</v>
+      </c>
+      <c r="G29" s="11">
+        <v>190</v>
+      </c>
+      <c r="H29" s="11">
+        <v>191</v>
+      </c>
+      <c r="I29" s="17">
+        <v>192</v>
+      </c>
+      <c r="J29" s="11">
+        <v>193</v>
+      </c>
+      <c r="K29" s="11">
+        <v>194</v>
+      </c>
+      <c r="L29" s="11">
+        <v>195</v>
+      </c>
+      <c r="M29" s="11">
+        <v>196</v>
+      </c>
+      <c r="N29" s="28">
+        <v>197</v>
+      </c>
+      <c r="O29" s="19">
+        <v>198</v>
+      </c>
+      <c r="P29" s="11">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>200</v>
+      </c>
+      <c r="R29" s="26">
+        <v>201</v>
+      </c>
+      <c r="S29" s="13">
+        <v>202</v>
+      </c>
+      <c r="T29" s="15">
+        <v>203</v>
+      </c>
+      <c r="U29" s="13">
+        <v>204</v>
+      </c>
+      <c r="V29" s="15">
+        <v>205</v>
+      </c>
+      <c r="W29" s="11">
+        <v>206</v>
+      </c>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>207</v>
+      </c>
+      <c r="B30" s="11">
+        <v>208</v>
+      </c>
+      <c r="C30" s="11">
+        <v>209</v>
+      </c>
+      <c r="D30" s="11">
+        <v>210</v>
+      </c>
+      <c r="E30" s="11">
+        <v>211</v>
+      </c>
+      <c r="F30" s="11">
+        <v>212</v>
+      </c>
+      <c r="G30" s="11">
+        <v>213</v>
+      </c>
+      <c r="H30" s="11">
+        <v>214</v>
+      </c>
+      <c r="I30" s="11">
+        <v>215</v>
+      </c>
+      <c r="J30" s="11">
+        <v>216</v>
+      </c>
+      <c r="K30" s="11">
+        <v>217</v>
+      </c>
+      <c r="L30" s="11">
+        <v>218</v>
+      </c>
+      <c r="M30" s="26">
+        <v>219</v>
+      </c>
+      <c r="N30" s="15">
+        <v>220</v>
+      </c>
+      <c r="O30" s="14">
+        <v>221</v>
+      </c>
+      <c r="P30" s="13">
+        <v>222</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>223</v>
+      </c>
+      <c r="R30" s="11">
+        <v>224</v>
+      </c>
+      <c r="S30" s="11">
+        <v>225</v>
+      </c>
+      <c r="T30" s="16">
+        <v>226</v>
+      </c>
+      <c r="U30" s="11">
+        <v>227</v>
+      </c>
+      <c r="V30" s="16">
+        <v>228</v>
+      </c>
+      <c r="W30" s="11">
+        <v>229</v>
+      </c>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>230</v>
+      </c>
+      <c r="B31" s="11">
+        <v>231</v>
+      </c>
+      <c r="C31" s="11">
+        <v>232</v>
+      </c>
+      <c r="D31" s="11">
+        <v>233</v>
+      </c>
+      <c r="E31" s="11">
+        <v>234</v>
+      </c>
+      <c r="F31" s="11">
+        <v>235</v>
+      </c>
+      <c r="G31" s="11">
+        <v>236</v>
+      </c>
+      <c r="H31" s="11">
+        <v>237</v>
+      </c>
+      <c r="I31" s="11">
+        <v>238</v>
+      </c>
+      <c r="J31" s="11">
+        <v>239</v>
+      </c>
+      <c r="K31" s="11">
+        <v>240</v>
+      </c>
+      <c r="L31" s="11">
+        <v>241</v>
+      </c>
+      <c r="M31" s="11">
+        <v>242</v>
+      </c>
+      <c r="N31" s="16">
+        <v>243</v>
+      </c>
+      <c r="O31" s="20">
+        <v>244</v>
+      </c>
+      <c r="P31" s="11">
+        <v>245</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>246</v>
+      </c>
+      <c r="R31" s="11">
+        <v>247</v>
+      </c>
+      <c r="S31" s="11">
+        <v>248</v>
+      </c>
+      <c r="T31" s="16">
+        <v>249</v>
+      </c>
+      <c r="U31" s="11">
+        <v>250</v>
+      </c>
+      <c r="V31" s="16">
+        <v>251</v>
+      </c>
+      <c r="W31" s="11">
+        <v>252</v>
+      </c>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="A32" s="11">
+        <v>253</v>
+      </c>
+      <c r="B32" s="11">
+        <v>254</v>
+      </c>
+      <c r="C32" s="11">
+        <v>255</v>
+      </c>
+      <c r="D32" s="11">
+        <v>256</v>
+      </c>
+      <c r="E32" s="11">
+        <v>257</v>
+      </c>
+      <c r="F32" s="11">
+        <v>258</v>
+      </c>
+      <c r="G32" s="11">
+        <v>259</v>
+      </c>
+      <c r="H32" s="11">
+        <v>260</v>
+      </c>
+      <c r="I32" s="11">
+        <v>261</v>
+      </c>
+      <c r="J32" s="11">
+        <v>262</v>
+      </c>
+      <c r="K32" s="11">
+        <v>263</v>
+      </c>
+      <c r="L32" s="11">
+        <v>264</v>
+      </c>
+      <c r="M32" s="11">
+        <v>265</v>
+      </c>
+      <c r="N32" s="16">
+        <v>266</v>
+      </c>
+      <c r="O32" s="11">
+        <v>267</v>
+      </c>
+      <c r="P32" s="11">
+        <v>268</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>269</v>
+      </c>
+      <c r="R32" s="11">
+        <v>270</v>
+      </c>
+      <c r="S32" s="11">
+        <v>271</v>
+      </c>
+      <c r="T32" s="16">
+        <v>272</v>
+      </c>
+      <c r="U32" s="11">
+        <v>273</v>
+      </c>
+      <c r="V32" s="16">
+        <v>274</v>
+      </c>
+      <c r="W32" s="11">
+        <v>275</v>
+      </c>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>276</v>
+      </c>
+      <c r="B33" s="11">
+        <v>277</v>
+      </c>
+      <c r="C33" s="11">
+        <v>278</v>
+      </c>
+      <c r="D33" s="11">
+        <v>279</v>
+      </c>
+      <c r="E33" s="11">
+        <v>280</v>
+      </c>
+      <c r="F33" s="11">
+        <v>281</v>
+      </c>
+      <c r="G33" s="11">
+        <v>282</v>
+      </c>
+      <c r="H33" s="11">
+        <v>283</v>
+      </c>
+      <c r="I33" s="11">
+        <v>284</v>
+      </c>
+      <c r="J33" s="11">
+        <v>285</v>
+      </c>
+      <c r="K33" s="11">
+        <v>286</v>
+      </c>
+      <c r="L33" s="11">
+        <v>287</v>
+      </c>
+      <c r="M33" s="11">
+        <v>288</v>
+      </c>
+      <c r="N33" s="16">
+        <v>289</v>
+      </c>
+      <c r="O33" s="11">
+        <v>290</v>
+      </c>
+      <c r="P33" s="11">
+        <v>291</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>292</v>
+      </c>
+      <c r="R33" s="11">
+        <v>293</v>
+      </c>
+      <c r="S33" s="11">
+        <v>294</v>
+      </c>
+      <c r="T33" s="16">
+        <v>295</v>
+      </c>
+      <c r="U33" s="11">
+        <v>296</v>
+      </c>
+      <c r="V33" s="16">
+        <v>297</v>
+      </c>
+      <c r="W33" s="11">
+        <v>298</v>
+      </c>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>299</v>
+      </c>
+      <c r="B34" s="11">
+        <v>300</v>
+      </c>
+      <c r="C34" s="11">
+        <v>301</v>
+      </c>
+      <c r="D34" s="11">
+        <v>302</v>
+      </c>
+      <c r="E34" s="11">
+        <v>303</v>
+      </c>
+      <c r="F34" s="11">
+        <v>304</v>
+      </c>
+      <c r="G34" s="11">
+        <v>305</v>
+      </c>
+      <c r="H34" s="11">
+        <v>306</v>
+      </c>
+      <c r="I34" s="11">
+        <v>307</v>
+      </c>
+      <c r="J34" s="11">
+        <v>308</v>
+      </c>
+      <c r="K34" s="11">
+        <v>309</v>
+      </c>
+      <c r="L34" s="26">
+        <v>310</v>
+      </c>
+      <c r="M34" s="13">
+        <v>311</v>
+      </c>
+      <c r="N34" s="15">
+        <v>312</v>
+      </c>
+      <c r="O34" s="13">
+        <v>313</v>
+      </c>
+      <c r="P34" s="13">
+        <v>314</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>315</v>
+      </c>
+      <c r="R34" s="13">
+        <v>316</v>
+      </c>
+      <c r="S34" s="26">
+        <v>317</v>
+      </c>
+      <c r="T34" s="15">
+        <v>318</v>
+      </c>
+      <c r="U34" s="13">
+        <v>319</v>
+      </c>
+      <c r="V34" s="15">
+        <v>320</v>
+      </c>
+      <c r="W34" s="11">
+        <v>321</v>
+      </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>322</v>
+      </c>
+      <c r="B35" s="11">
+        <v>323</v>
+      </c>
+      <c r="C35" s="11">
+        <v>324</v>
+      </c>
+      <c r="D35" s="11">
+        <v>325</v>
+      </c>
+      <c r="E35" s="11">
+        <v>326</v>
+      </c>
+      <c r="F35" s="11">
+        <v>327</v>
+      </c>
+      <c r="G35" s="11">
+        <v>328</v>
+      </c>
+      <c r="H35" s="11">
+        <v>329</v>
+      </c>
+      <c r="I35" s="11">
+        <v>330</v>
+      </c>
+      <c r="J35" s="11">
+        <v>331</v>
+      </c>
+      <c r="K35" s="11">
+        <v>332</v>
+      </c>
+      <c r="L35" s="11">
+        <v>333</v>
+      </c>
+      <c r="M35" s="11">
+        <v>334</v>
+      </c>
+      <c r="N35" s="16">
+        <v>335</v>
+      </c>
+      <c r="O35" s="11">
+        <v>336</v>
+      </c>
+      <c r="P35" s="11">
+        <v>337</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>338</v>
+      </c>
+      <c r="R35" s="11">
+        <v>339</v>
+      </c>
+      <c r="S35" s="21">
+        <v>340</v>
+      </c>
+      <c r="T35" s="17">
+        <v>341</v>
+      </c>
+      <c r="U35" s="11">
+        <v>342</v>
+      </c>
+      <c r="V35" s="11">
+        <v>343</v>
+      </c>
+      <c r="W35" s="11">
+        <v>344</v>
+      </c>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>345</v>
+      </c>
+      <c r="B36" s="11">
+        <v>346</v>
+      </c>
+      <c r="C36" s="11">
+        <v>347</v>
+      </c>
+      <c r="D36" s="11">
+        <v>348</v>
+      </c>
+      <c r="E36" s="11">
+        <v>349</v>
+      </c>
+      <c r="F36" s="11">
+        <v>350</v>
+      </c>
+      <c r="G36" s="11">
+        <v>351</v>
+      </c>
+      <c r="H36" s="11">
+        <v>352</v>
+      </c>
+      <c r="I36" s="11">
+        <v>353</v>
+      </c>
+      <c r="J36" s="11">
+        <v>354</v>
+      </c>
+      <c r="K36" s="11">
+        <v>355</v>
+      </c>
+      <c r="L36" s="11">
+        <v>356</v>
+      </c>
+      <c r="M36" s="11">
+        <v>357</v>
+      </c>
+      <c r="N36" s="17">
+        <v>358</v>
+      </c>
+      <c r="O36" s="11">
+        <v>359</v>
+      </c>
+      <c r="P36" s="11">
+        <v>360</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>361</v>
+      </c>
+      <c r="R36" s="11">
+        <v>362</v>
+      </c>
+      <c r="S36" s="16">
+        <v>363</v>
+      </c>
+      <c r="T36" s="11">
+        <v>364</v>
+      </c>
+      <c r="U36" s="11">
+        <v>365</v>
+      </c>
+      <c r="V36" s="11">
+        <v>366</v>
+      </c>
+      <c r="W36" s="11">
+        <v>367</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>368</v>
+      </c>
+      <c r="B37" s="11">
+        <v>369</v>
+      </c>
+      <c r="C37" s="11">
+        <v>370</v>
+      </c>
+      <c r="D37" s="11">
+        <v>371</v>
+      </c>
+      <c r="E37" s="11">
+        <v>372</v>
+      </c>
+      <c r="F37" s="11">
+        <v>373</v>
+      </c>
+      <c r="G37" s="11">
+        <v>374</v>
+      </c>
+      <c r="H37" s="11">
+        <v>375</v>
+      </c>
+      <c r="I37" s="11">
+        <v>376</v>
+      </c>
+      <c r="J37" s="11">
+        <v>377</v>
+      </c>
+      <c r="K37" s="11">
+        <v>378</v>
+      </c>
+      <c r="L37" s="11">
+        <v>379</v>
+      </c>
+      <c r="M37" s="11">
+        <v>380</v>
+      </c>
+      <c r="N37" s="11">
+        <v>381</v>
+      </c>
+      <c r="O37" s="11">
+        <v>382</v>
+      </c>
+      <c r="P37" s="11">
+        <v>383</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>384</v>
+      </c>
+      <c r="R37" s="11">
+        <v>385</v>
+      </c>
+      <c r="S37" s="17">
+        <v>386</v>
+      </c>
+      <c r="T37" s="11">
+        <v>387</v>
+      </c>
+      <c r="U37" s="11">
+        <v>388</v>
+      </c>
+      <c r="V37" s="11">
+        <v>389</v>
+      </c>
+      <c r="W37" s="11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>391</v>
+      </c>
+      <c r="B38" s="11">
+        <v>392</v>
+      </c>
+      <c r="C38" s="11">
+        <v>393</v>
+      </c>
+      <c r="D38" s="11">
+        <v>394</v>
+      </c>
+      <c r="E38" s="11">
+        <v>395</v>
+      </c>
+      <c r="F38" s="11">
+        <v>396</v>
+      </c>
+      <c r="G38" s="11">
+        <v>397</v>
+      </c>
+      <c r="H38" s="11">
+        <v>398</v>
+      </c>
+      <c r="I38" s="11">
+        <v>399</v>
+      </c>
+      <c r="J38" s="11">
+        <v>400</v>
+      </c>
+      <c r="K38" s="11">
+        <v>401</v>
+      </c>
+      <c r="L38" s="11">
+        <v>402</v>
+      </c>
+      <c r="M38" s="11">
+        <v>403</v>
+      </c>
+      <c r="N38" s="11">
+        <v>404</v>
+      </c>
+      <c r="O38" s="11">
+        <v>405</v>
+      </c>
+      <c r="P38" s="11">
+        <v>406</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>407</v>
+      </c>
+      <c r="R38" s="11">
+        <v>408</v>
+      </c>
+      <c r="S38" s="11">
+        <v>409</v>
+      </c>
+      <c r="T38" s="11">
+        <v>410</v>
+      </c>
+      <c r="U38" s="11">
+        <v>411</v>
+      </c>
+      <c r="V38" s="11">
+        <v>412</v>
+      </c>
+      <c r="W38" s="11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6233,10 +7223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2B51F0-15D0-4241-815F-0BBBA4D2E051}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U1048576"/>
+    <sheetView topLeftCell="A20" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,7 +7237,7 @@
     <col min="28" max="48" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -6312,7 +7302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -6377,7 +7367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -6442,7 +7432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>63</v>
       </c>
@@ -6507,7 +7497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>84</v>
       </c>
@@ -6572,7 +7562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -6637,7 +7627,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>126</v>
       </c>
@@ -6702,7 +7692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>147</v>
       </c>
@@ -6767,7 +7757,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>168</v>
       </c>
@@ -6832,7 +7822,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>189</v>
       </c>
@@ -6897,7 +7887,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>210</v>
       </c>
@@ -6962,7 +7952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>231</v>
       </c>
@@ -7026,8 +8016,27 @@
       <c r="U12" s="2">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>252</v>
       </c>
@@ -7091,8 +8100,27 @@
       <c r="U13" s="2">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+    </row>
+    <row r="14" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>273</v>
       </c>
@@ -7156,8 +8184,27 @@
       <c r="U14" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+    </row>
+    <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>294</v>
       </c>
@@ -7221,8 +8268,27 @@
       <c r="U15" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>315</v>
       </c>
@@ -7286,8 +8352,27 @@
       <c r="U16" s="2">
         <v>335</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+    </row>
+    <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>336</v>
       </c>
@@ -7351,8 +8436,27 @@
       <c r="U17" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+    </row>
+    <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>357</v>
       </c>
@@ -7416,8 +8520,27 @@
       <c r="U18" s="2">
         <v>377</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+    </row>
+    <row r="19" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>378</v>
       </c>
@@ -7481,8 +8604,27 @@
       <c r="U19" s="2">
         <v>398</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>399</v>
       </c>
@@ -7545,6 +8687,1514 @@
       </c>
       <c r="U20" s="2">
         <v>419</v>
+      </c>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+    </row>
+    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+    </row>
+    <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="31">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7">
+        <v>27</v>
+      </c>
+      <c r="I23" s="7">
+        <v>28</v>
+      </c>
+      <c r="J23" s="7">
+        <v>29</v>
+      </c>
+      <c r="K23" s="7">
+        <v>30</v>
+      </c>
+      <c r="L23" s="5">
+        <v>31</v>
+      </c>
+      <c r="M23" s="2">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+    </row>
+    <row r="24" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>40</v>
+      </c>
+      <c r="B24" s="9">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45</v>
+      </c>
+      <c r="G24" s="9">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2">
+        <v>47</v>
+      </c>
+      <c r="I24" s="2">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2">
+        <v>49</v>
+      </c>
+      <c r="K24" s="2">
+        <v>50</v>
+      </c>
+      <c r="L24" s="2">
+        <v>51</v>
+      </c>
+      <c r="M24" s="2">
+        <v>52</v>
+      </c>
+      <c r="N24" s="2">
+        <v>53</v>
+      </c>
+      <c r="O24" s="33">
+        <v>54</v>
+      </c>
+      <c r="P24" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>56</v>
+      </c>
+      <c r="R24" s="2">
+        <v>57</v>
+      </c>
+      <c r="S24" s="2">
+        <v>58</v>
+      </c>
+      <c r="T24" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+    </row>
+    <row r="25" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>60</v>
+      </c>
+      <c r="B25" s="9">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2">
+        <v>65</v>
+      </c>
+      <c r="G25" s="31">
+        <v>66</v>
+      </c>
+      <c r="H25" s="7">
+        <v>67</v>
+      </c>
+      <c r="I25" s="7">
+        <v>68</v>
+      </c>
+      <c r="J25" s="7">
+        <v>69</v>
+      </c>
+      <c r="K25" s="7">
+        <v>70</v>
+      </c>
+      <c r="L25" s="7">
+        <v>71</v>
+      </c>
+      <c r="M25" s="7">
+        <v>72</v>
+      </c>
+      <c r="N25" s="7">
+        <v>73</v>
+      </c>
+      <c r="O25" s="8">
+        <v>74</v>
+      </c>
+      <c r="P25" s="5">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>76</v>
+      </c>
+      <c r="R25" s="2">
+        <v>77</v>
+      </c>
+      <c r="S25" s="2">
+        <v>78</v>
+      </c>
+      <c r="T25" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+    </row>
+    <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>80</v>
+      </c>
+      <c r="B26" s="9">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" s="9">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2">
+        <v>88</v>
+      </c>
+      <c r="J26" s="2">
+        <v>89</v>
+      </c>
+      <c r="K26" s="2">
+        <v>90</v>
+      </c>
+      <c r="L26" s="2">
+        <v>91</v>
+      </c>
+      <c r="M26" s="2">
+        <v>92</v>
+      </c>
+      <c r="N26" s="2">
+        <v>93</v>
+      </c>
+      <c r="O26" s="9">
+        <v>94</v>
+      </c>
+      <c r="P26" s="2">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>96</v>
+      </c>
+      <c r="R26" s="2">
+        <v>97</v>
+      </c>
+      <c r="S26" s="2">
+        <v>98</v>
+      </c>
+      <c r="T26" s="2">
+        <v>99</v>
+      </c>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
+    </row>
+    <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>100</v>
+      </c>
+      <c r="B27" s="9">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2">
+        <v>104</v>
+      </c>
+      <c r="F27" s="32">
+        <v>105</v>
+      </c>
+      <c r="G27" s="8">
+        <v>106</v>
+      </c>
+      <c r="H27" s="7">
+        <v>107</v>
+      </c>
+      <c r="I27" s="7">
+        <v>108</v>
+      </c>
+      <c r="J27" s="7">
+        <v>109</v>
+      </c>
+      <c r="K27" s="5">
+        <v>110</v>
+      </c>
+      <c r="L27" s="2">
+        <v>111</v>
+      </c>
+      <c r="M27" s="2">
+        <v>112</v>
+      </c>
+      <c r="N27" s="32">
+        <v>113</v>
+      </c>
+      <c r="O27" s="8">
+        <v>114</v>
+      </c>
+      <c r="P27" s="7">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>116</v>
+      </c>
+      <c r="R27" s="7">
+        <v>117</v>
+      </c>
+      <c r="S27" s="5">
+        <v>118</v>
+      </c>
+      <c r="T27" s="2">
+        <v>119</v>
+      </c>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+    </row>
+    <row r="28" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>120</v>
+      </c>
+      <c r="B28" s="9">
+        <v>121</v>
+      </c>
+      <c r="C28" s="2">
+        <v>122</v>
+      </c>
+      <c r="D28" s="2">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2">
+        <v>125</v>
+      </c>
+      <c r="G28" s="9">
+        <v>126</v>
+      </c>
+      <c r="H28" s="2">
+        <v>127</v>
+      </c>
+      <c r="I28" s="2">
+        <v>128</v>
+      </c>
+      <c r="J28" s="2">
+        <v>129</v>
+      </c>
+      <c r="K28" s="2">
+        <v>130</v>
+      </c>
+      <c r="L28" s="2">
+        <v>131</v>
+      </c>
+      <c r="M28" s="2">
+        <v>132</v>
+      </c>
+      <c r="N28" s="2">
+        <v>133</v>
+      </c>
+      <c r="O28" s="10">
+        <v>134</v>
+      </c>
+      <c r="P28" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>136</v>
+      </c>
+      <c r="R28" s="2">
+        <v>137</v>
+      </c>
+      <c r="S28" s="2">
+        <v>138</v>
+      </c>
+      <c r="T28" s="2">
+        <v>139</v>
+      </c>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+    </row>
+    <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>140</v>
+      </c>
+      <c r="B29" s="10">
+        <v>141</v>
+      </c>
+      <c r="C29" s="2">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2">
+        <v>145</v>
+      </c>
+      <c r="G29" s="9">
+        <v>146</v>
+      </c>
+      <c r="H29" s="2">
+        <v>147</v>
+      </c>
+      <c r="I29" s="33">
+        <v>148</v>
+      </c>
+      <c r="J29" s="2">
+        <v>149</v>
+      </c>
+      <c r="K29" s="2">
+        <v>150</v>
+      </c>
+      <c r="L29" s="2">
+        <v>151</v>
+      </c>
+      <c r="M29" s="2">
+        <v>152</v>
+      </c>
+      <c r="N29" s="2">
+        <v>153</v>
+      </c>
+      <c r="O29" s="2">
+        <v>154</v>
+      </c>
+      <c r="P29" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>156</v>
+      </c>
+      <c r="R29" s="2">
+        <v>157</v>
+      </c>
+      <c r="S29" s="2">
+        <v>158</v>
+      </c>
+      <c r="T29" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+    </row>
+    <row r="30" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>160</v>
+      </c>
+      <c r="B30" s="2">
+        <v>161</v>
+      </c>
+      <c r="C30" s="2">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2">
+        <v>164</v>
+      </c>
+      <c r="F30" s="32">
+        <v>165</v>
+      </c>
+      <c r="G30" s="8">
+        <v>166</v>
+      </c>
+      <c r="H30" s="7">
+        <v>167</v>
+      </c>
+      <c r="I30" s="8">
+        <v>168</v>
+      </c>
+      <c r="J30" s="7">
+        <v>169</v>
+      </c>
+      <c r="K30" s="7">
+        <v>170</v>
+      </c>
+      <c r="L30" s="5">
+        <v>171</v>
+      </c>
+      <c r="M30" s="2">
+        <v>172</v>
+      </c>
+      <c r="N30" s="2">
+        <v>173</v>
+      </c>
+      <c r="O30" s="2">
+        <v>174</v>
+      </c>
+      <c r="P30" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>176</v>
+      </c>
+      <c r="R30" s="2">
+        <v>177</v>
+      </c>
+      <c r="S30" s="2">
+        <v>178</v>
+      </c>
+      <c r="T30" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <v>181</v>
+      </c>
+      <c r="C31" s="2">
+        <v>182</v>
+      </c>
+      <c r="D31" s="2">
+        <v>183</v>
+      </c>
+      <c r="E31" s="2">
+        <v>184</v>
+      </c>
+      <c r="F31" s="2">
+        <v>185</v>
+      </c>
+      <c r="G31" s="9">
+        <v>186</v>
+      </c>
+      <c r="H31" s="2">
+        <v>187</v>
+      </c>
+      <c r="I31" s="9">
+        <v>188</v>
+      </c>
+      <c r="J31" s="2">
+        <v>189</v>
+      </c>
+      <c r="K31" s="2">
+        <v>190</v>
+      </c>
+      <c r="L31" s="2">
+        <v>191</v>
+      </c>
+      <c r="M31" s="2">
+        <v>192</v>
+      </c>
+      <c r="N31" s="2">
+        <v>193</v>
+      </c>
+      <c r="O31" s="2">
+        <v>194</v>
+      </c>
+      <c r="P31" s="2">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>196</v>
+      </c>
+      <c r="R31" s="2">
+        <v>197</v>
+      </c>
+      <c r="S31" s="2">
+        <v>198</v>
+      </c>
+      <c r="T31" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
+    </row>
+    <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2">
+        <v>201</v>
+      </c>
+      <c r="C32" s="2">
+        <v>202</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203</v>
+      </c>
+      <c r="E32" s="2">
+        <v>204</v>
+      </c>
+      <c r="F32" s="2">
+        <v>205</v>
+      </c>
+      <c r="G32" s="10">
+        <v>206</v>
+      </c>
+      <c r="H32" s="2">
+        <v>207</v>
+      </c>
+      <c r="I32" s="9">
+        <v>208</v>
+      </c>
+      <c r="J32" s="2">
+        <v>209</v>
+      </c>
+      <c r="K32" s="2">
+        <v>210</v>
+      </c>
+      <c r="L32" s="2">
+        <v>211</v>
+      </c>
+      <c r="M32" s="2">
+        <v>212</v>
+      </c>
+      <c r="N32" s="2">
+        <v>213</v>
+      </c>
+      <c r="O32" s="2">
+        <v>214</v>
+      </c>
+      <c r="P32" s="2">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>216</v>
+      </c>
+      <c r="R32" s="2">
+        <v>217</v>
+      </c>
+      <c r="S32" s="2">
+        <v>218</v>
+      </c>
+      <c r="T32" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>220</v>
+      </c>
+      <c r="B33" s="2">
+        <v>221</v>
+      </c>
+      <c r="C33" s="2">
+        <v>222</v>
+      </c>
+      <c r="D33" s="2">
+        <v>223</v>
+      </c>
+      <c r="E33" s="2">
+        <v>224</v>
+      </c>
+      <c r="F33" s="2">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2">
+        <v>226</v>
+      </c>
+      <c r="H33" s="2">
+        <v>227</v>
+      </c>
+      <c r="I33" s="9">
+        <v>228</v>
+      </c>
+      <c r="J33" s="2">
+        <v>229</v>
+      </c>
+      <c r="K33" s="2">
+        <v>230</v>
+      </c>
+      <c r="L33" s="2">
+        <v>231</v>
+      </c>
+      <c r="M33" s="2">
+        <v>232</v>
+      </c>
+      <c r="N33" s="2">
+        <v>233</v>
+      </c>
+      <c r="O33" s="2">
+        <v>234</v>
+      </c>
+      <c r="P33" s="2">
+        <v>235</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>236</v>
+      </c>
+      <c r="R33" s="2">
+        <v>237</v>
+      </c>
+      <c r="S33" s="2">
+        <v>238</v>
+      </c>
+      <c r="T33" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="30"/>
+      <c r="AQ33" s="30"/>
+      <c r="AR33" s="30"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>240</v>
+      </c>
+      <c r="B34" s="2">
+        <v>241</v>
+      </c>
+      <c r="C34" s="2">
+        <v>242</v>
+      </c>
+      <c r="D34" s="2">
+        <v>243</v>
+      </c>
+      <c r="E34" s="2">
+        <v>244</v>
+      </c>
+      <c r="F34" s="2">
+        <v>245</v>
+      </c>
+      <c r="G34" s="2">
+        <v>246</v>
+      </c>
+      <c r="H34" s="2">
+        <v>247</v>
+      </c>
+      <c r="I34" s="9">
+        <v>248</v>
+      </c>
+      <c r="J34" s="2">
+        <v>249</v>
+      </c>
+      <c r="K34" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" s="2">
+        <v>251</v>
+      </c>
+      <c r="M34" s="2">
+        <v>252</v>
+      </c>
+      <c r="N34" s="2">
+        <v>253</v>
+      </c>
+      <c r="O34" s="2">
+        <v>254</v>
+      </c>
+      <c r="P34" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>256</v>
+      </c>
+      <c r="R34" s="2">
+        <v>257</v>
+      </c>
+      <c r="S34" s="2">
+        <v>258</v>
+      </c>
+      <c r="T34" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>260</v>
+      </c>
+      <c r="B35" s="2">
+        <v>261</v>
+      </c>
+      <c r="C35" s="2">
+        <v>262</v>
+      </c>
+      <c r="D35" s="2">
+        <v>263</v>
+      </c>
+      <c r="E35" s="2">
+        <v>264</v>
+      </c>
+      <c r="F35" s="2">
+        <v>265</v>
+      </c>
+      <c r="G35" s="2">
+        <v>266</v>
+      </c>
+      <c r="H35" s="2">
+        <v>267</v>
+      </c>
+      <c r="I35" s="9">
+        <v>268</v>
+      </c>
+      <c r="J35" s="2">
+        <v>269</v>
+      </c>
+      <c r="K35" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" s="2">
+        <v>272</v>
+      </c>
+      <c r="N35" s="2">
+        <v>273</v>
+      </c>
+      <c r="O35" s="2">
+        <v>274</v>
+      </c>
+      <c r="P35" s="2">
+        <v>275</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>276</v>
+      </c>
+      <c r="R35" s="2">
+        <v>277</v>
+      </c>
+      <c r="S35" s="2">
+        <v>278</v>
+      </c>
+      <c r="T35" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2">
+        <v>281</v>
+      </c>
+      <c r="C36" s="2">
+        <v>282</v>
+      </c>
+      <c r="D36" s="2">
+        <v>283</v>
+      </c>
+      <c r="E36" s="2">
+        <v>284</v>
+      </c>
+      <c r="F36" s="2">
+        <v>285</v>
+      </c>
+      <c r="G36" s="2">
+        <v>286</v>
+      </c>
+      <c r="H36" s="2">
+        <v>287</v>
+      </c>
+      <c r="I36" s="31">
+        <v>288</v>
+      </c>
+      <c r="J36" s="7">
+        <v>289</v>
+      </c>
+      <c r="K36" s="7">
+        <v>290</v>
+      </c>
+      <c r="L36" s="31">
+        <v>291</v>
+      </c>
+      <c r="M36" s="5">
+        <v>292</v>
+      </c>
+      <c r="N36" s="2">
+        <v>293</v>
+      </c>
+      <c r="O36" s="2">
+        <v>294</v>
+      </c>
+      <c r="P36" s="2">
+        <v>295</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>296</v>
+      </c>
+      <c r="R36" s="2">
+        <v>297</v>
+      </c>
+      <c r="S36" s="2">
+        <v>298</v>
+      </c>
+      <c r="T36" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>300</v>
+      </c>
+      <c r="B37" s="2">
+        <v>301</v>
+      </c>
+      <c r="C37" s="2">
+        <v>302</v>
+      </c>
+      <c r="D37" s="2">
+        <v>303</v>
+      </c>
+      <c r="E37" s="2">
+        <v>304</v>
+      </c>
+      <c r="F37" s="2">
+        <v>305</v>
+      </c>
+      <c r="G37" s="2">
+        <v>306</v>
+      </c>
+      <c r="H37" s="2">
+        <v>307</v>
+      </c>
+      <c r="I37" s="2">
+        <v>308</v>
+      </c>
+      <c r="J37" s="2">
+        <v>309</v>
+      </c>
+      <c r="K37" s="2">
+        <v>310</v>
+      </c>
+      <c r="L37" s="9">
+        <v>311</v>
+      </c>
+      <c r="M37" s="2">
+        <v>312</v>
+      </c>
+      <c r="N37" s="2">
+        <v>313</v>
+      </c>
+      <c r="O37" s="2">
+        <v>314</v>
+      </c>
+      <c r="P37" s="2">
+        <v>315</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>316</v>
+      </c>
+      <c r="R37" s="2">
+        <v>317</v>
+      </c>
+      <c r="S37" s="2">
+        <v>318</v>
+      </c>
+      <c r="T37" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>320</v>
+      </c>
+      <c r="B38" s="2">
+        <v>321</v>
+      </c>
+      <c r="C38" s="2">
+        <v>322</v>
+      </c>
+      <c r="D38" s="2">
+        <v>323</v>
+      </c>
+      <c r="E38" s="2">
+        <v>324</v>
+      </c>
+      <c r="F38" s="2">
+        <v>325</v>
+      </c>
+      <c r="G38" s="2">
+        <v>326</v>
+      </c>
+      <c r="H38" s="2">
+        <v>327</v>
+      </c>
+      <c r="I38" s="2">
+        <v>328</v>
+      </c>
+      <c r="J38" s="2">
+        <v>329</v>
+      </c>
+      <c r="K38" s="2">
+        <v>330</v>
+      </c>
+      <c r="L38" s="9">
+        <v>331</v>
+      </c>
+      <c r="M38" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" s="2">
+        <v>333</v>
+      </c>
+      <c r="O38" s="2">
+        <v>334</v>
+      </c>
+      <c r="P38" s="2">
+        <v>335</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>336</v>
+      </c>
+      <c r="R38" s="2">
+        <v>337</v>
+      </c>
+      <c r="S38" s="2">
+        <v>338</v>
+      </c>
+      <c r="T38" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>340</v>
+      </c>
+      <c r="B39" s="2">
+        <v>341</v>
+      </c>
+      <c r="C39" s="2">
+        <v>342</v>
+      </c>
+      <c r="D39" s="2">
+        <v>343</v>
+      </c>
+      <c r="E39" s="2">
+        <v>344</v>
+      </c>
+      <c r="F39" s="2">
+        <v>345</v>
+      </c>
+      <c r="G39" s="2">
+        <v>346</v>
+      </c>
+      <c r="H39" s="2">
+        <v>347</v>
+      </c>
+      <c r="I39" s="2">
+        <v>348</v>
+      </c>
+      <c r="J39" s="2">
+        <v>349</v>
+      </c>
+      <c r="K39" s="2">
+        <v>350</v>
+      </c>
+      <c r="L39" s="31">
+        <v>351</v>
+      </c>
+      <c r="M39" s="7">
+        <v>352</v>
+      </c>
+      <c r="N39" s="7">
+        <v>353</v>
+      </c>
+      <c r="O39" s="7">
+        <v>354</v>
+      </c>
+      <c r="P39" s="7">
+        <v>355</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>356</v>
+      </c>
+      <c r="R39" s="5">
+        <v>357</v>
+      </c>
+      <c r="S39" s="2">
+        <v>358</v>
+      </c>
+      <c r="T39" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>360</v>
+      </c>
+      <c r="B40" s="2">
+        <v>361</v>
+      </c>
+      <c r="C40" s="2">
+        <v>362</v>
+      </c>
+      <c r="D40" s="2">
+        <v>363</v>
+      </c>
+      <c r="E40" s="2">
+        <v>364</v>
+      </c>
+      <c r="F40" s="2">
+        <v>365</v>
+      </c>
+      <c r="G40" s="2">
+        <v>366</v>
+      </c>
+      <c r="H40" s="2">
+        <v>367</v>
+      </c>
+      <c r="I40" s="2">
+        <v>368</v>
+      </c>
+      <c r="J40" s="2">
+        <v>369</v>
+      </c>
+      <c r="K40" s="2">
+        <v>370</v>
+      </c>
+      <c r="L40" s="10">
+        <v>371</v>
+      </c>
+      <c r="M40" s="2">
+        <v>372</v>
+      </c>
+      <c r="N40" s="2">
+        <v>373</v>
+      </c>
+      <c r="O40" s="2">
+        <v>374</v>
+      </c>
+      <c r="P40" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>376</v>
+      </c>
+      <c r="R40" s="2">
+        <v>377</v>
+      </c>
+      <c r="S40" s="2">
+        <v>378</v>
+      </c>
+      <c r="T40" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>380</v>
+      </c>
+      <c r="B41" s="2">
+        <v>381</v>
+      </c>
+      <c r="C41" s="2">
+        <v>382</v>
+      </c>
+      <c r="D41" s="2">
+        <v>383</v>
+      </c>
+      <c r="E41" s="2">
+        <v>384</v>
+      </c>
+      <c r="F41" s="2">
+        <v>385</v>
+      </c>
+      <c r="G41" s="2">
+        <v>386</v>
+      </c>
+      <c r="H41" s="2">
+        <v>387</v>
+      </c>
+      <c r="I41" s="2">
+        <v>388</v>
+      </c>
+      <c r="J41" s="2">
+        <v>389</v>
+      </c>
+      <c r="K41" s="2">
+        <v>390</v>
+      </c>
+      <c r="L41" s="2">
+        <v>391</v>
+      </c>
+      <c r="M41" s="2">
+        <v>392</v>
+      </c>
+      <c r="N41" s="2">
+        <v>393</v>
+      </c>
+      <c r="O41" s="2">
+        <v>394</v>
+      </c>
+      <c r="P41" s="2">
+        <v>395</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>396</v>
+      </c>
+      <c r="R41" s="2">
+        <v>397</v>
+      </c>
+      <c r="S41" s="2">
+        <v>398</v>
+      </c>
+      <c r="T41" s="2">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7556,11 +10206,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC14058-FC21-466D-BD25-8DBA7F8429CF}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="A8" zoomScale="74" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="5.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
@@ -8400,22 +11053,52 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>13</v>
+      </c>
+      <c r="O16" s="2">
+        <v>14</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -8426,22 +11109,52 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="32">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20</v>
+      </c>
+      <c r="G17" s="31">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
+        <v>22</v>
+      </c>
+      <c r="I17" s="5">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2">
+        <v>28</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -8452,22 +11165,52 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>42</v>
+      </c>
+      <c r="N18" s="33">
+        <v>43</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -8478,22 +11221,52 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>48</v>
+      </c>
+      <c r="E19" s="2">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" s="31">
+        <v>51</v>
+      </c>
+      <c r="H19" s="7">
+        <v>52</v>
+      </c>
+      <c r="I19" s="7">
+        <v>53</v>
+      </c>
+      <c r="J19" s="7">
+        <v>54</v>
+      </c>
+      <c r="K19" s="31">
+        <v>55</v>
+      </c>
+      <c r="L19" s="7">
+        <v>56</v>
+      </c>
+      <c r="M19" s="7">
+        <v>57</v>
+      </c>
+      <c r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="2">
+        <v>59</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -8504,22 +11277,52 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2">
+        <v>63</v>
+      </c>
+      <c r="E20" s="33">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2">
+        <v>65</v>
+      </c>
+      <c r="G20" s="9">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2">
+        <v>69</v>
+      </c>
+      <c r="K20" s="9">
+        <v>70</v>
+      </c>
+      <c r="L20" s="2">
+        <v>71</v>
+      </c>
+      <c r="M20" s="2">
+        <v>72</v>
+      </c>
+      <c r="N20" s="9">
+        <v>73</v>
+      </c>
+      <c r="O20" s="2">
+        <v>74</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -8530,22 +11333,52 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>75</v>
+      </c>
+      <c r="B21" s="32">
+        <v>76</v>
+      </c>
+      <c r="C21" s="8">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7">
+        <v>78</v>
+      </c>
+      <c r="E21" s="8">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7">
+        <v>80</v>
+      </c>
+      <c r="G21" s="8">
+        <v>81</v>
+      </c>
+      <c r="H21" s="5">
+        <v>82</v>
+      </c>
+      <c r="I21" s="2">
+        <v>83</v>
+      </c>
+      <c r="J21" s="2">
+        <v>84</v>
+      </c>
+      <c r="K21" s="9">
+        <v>85</v>
+      </c>
+      <c r="L21" s="2">
+        <v>86</v>
+      </c>
+      <c r="M21" s="2">
+        <v>87</v>
+      </c>
+      <c r="N21" s="9">
+        <v>88</v>
+      </c>
+      <c r="O21" s="2">
+        <v>89</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -8556,22 +11389,52 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2">
+        <v>93</v>
+      </c>
+      <c r="E22" s="9">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2">
+        <v>95</v>
+      </c>
+      <c r="G22" s="2">
+        <v>96</v>
+      </c>
+      <c r="H22" s="2">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2">
+        <v>98</v>
+      </c>
+      <c r="J22" s="2">
+        <v>99</v>
+      </c>
+      <c r="K22" s="9">
+        <v>100</v>
+      </c>
+      <c r="L22" s="2">
+        <v>101</v>
+      </c>
+      <c r="M22" s="2">
+        <v>102</v>
+      </c>
+      <c r="N22" s="9">
+        <v>103</v>
+      </c>
+      <c r="O22" s="2">
+        <v>104</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -8582,22 +11445,52 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2">
+        <v>108</v>
+      </c>
+      <c r="E23" s="22">
+        <v>109</v>
+      </c>
+      <c r="F23" s="33">
+        <v>110</v>
+      </c>
+      <c r="G23" s="2">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2">
+        <v>112</v>
+      </c>
+      <c r="I23" s="2">
+        <v>113</v>
+      </c>
+      <c r="J23" s="2">
+        <v>114</v>
+      </c>
+      <c r="K23" s="10">
+        <v>115</v>
+      </c>
+      <c r="L23" s="2">
+        <v>116</v>
+      </c>
+      <c r="M23" s="2">
+        <v>117</v>
+      </c>
+      <c r="N23" s="10">
+        <v>118</v>
+      </c>
+      <c r="O23" s="2">
+        <v>119</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -8608,22 +11501,52 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2">
+        <v>123</v>
+      </c>
+      <c r="E24" s="32">
+        <v>124</v>
+      </c>
+      <c r="F24" s="8">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7">
+        <v>127</v>
+      </c>
+      <c r="I24" s="5">
+        <v>128</v>
+      </c>
+      <c r="J24" s="2">
+        <v>129</v>
+      </c>
+      <c r="K24" s="2">
+        <v>130</v>
+      </c>
+      <c r="L24" s="2">
+        <v>131</v>
+      </c>
+      <c r="M24" s="2">
+        <v>132</v>
+      </c>
+      <c r="N24" s="2">
+        <v>133</v>
+      </c>
+      <c r="O24" s="2">
+        <v>134</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -8635,21 +11558,51 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="2">
+        <v>135</v>
+      </c>
+      <c r="B25" s="2">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2">
+        <v>137</v>
+      </c>
+      <c r="D25" s="2">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2">
+        <v>139</v>
+      </c>
+      <c r="F25" s="9">
+        <v>140</v>
+      </c>
+      <c r="G25" s="2">
+        <v>141</v>
+      </c>
+      <c r="H25" s="2">
+        <v>142</v>
+      </c>
+      <c r="I25" s="2">
+        <v>143</v>
+      </c>
+      <c r="J25" s="2">
+        <v>144</v>
+      </c>
+      <c r="K25" s="2">
+        <v>145</v>
+      </c>
+      <c r="L25" s="2">
+        <v>146</v>
+      </c>
+      <c r="M25" s="2">
+        <v>147</v>
+      </c>
+      <c r="N25" s="2">
+        <v>148</v>
+      </c>
+      <c r="O25" s="2">
+        <v>149</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -8660,22 +11613,52 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2">
+        <v>153</v>
+      </c>
+      <c r="E26" s="34">
+        <v>154</v>
+      </c>
+      <c r="F26" s="9">
+        <v>155</v>
+      </c>
+      <c r="G26" s="2">
+        <v>156</v>
+      </c>
+      <c r="H26" s="2">
+        <v>157</v>
+      </c>
+      <c r="I26" s="2">
+        <v>158</v>
+      </c>
+      <c r="J26" s="2">
+        <v>159</v>
+      </c>
+      <c r="K26" s="2">
+        <v>160</v>
+      </c>
+      <c r="L26" s="2">
+        <v>161</v>
+      </c>
+      <c r="M26" s="2">
+        <v>162</v>
+      </c>
+      <c r="N26" s="2">
+        <v>163</v>
+      </c>
+      <c r="O26" s="2">
+        <v>164</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -8686,22 +11669,52 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>165</v>
+      </c>
+      <c r="B27" s="2">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2">
+        <v>167</v>
+      </c>
+      <c r="D27" s="2">
+        <v>168</v>
+      </c>
+      <c r="E27" s="32">
+        <v>169</v>
+      </c>
+      <c r="F27" s="8">
+        <v>170</v>
+      </c>
+      <c r="G27" s="7">
+        <v>171</v>
+      </c>
+      <c r="H27" s="7">
+        <v>172</v>
+      </c>
+      <c r="I27" s="7">
+        <v>173</v>
+      </c>
+      <c r="J27" s="7">
+        <v>174</v>
+      </c>
+      <c r="K27" s="5">
+        <v>175</v>
+      </c>
+      <c r="L27" s="2">
+        <v>176</v>
+      </c>
+      <c r="M27" s="2">
+        <v>177</v>
+      </c>
+      <c r="N27" s="2">
+        <v>178</v>
+      </c>
+      <c r="O27" s="2">
+        <v>179</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -8712,22 +11725,52 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>181</v>
+      </c>
+      <c r="C28" s="2">
+        <v>182</v>
+      </c>
+      <c r="D28" s="2">
+        <v>183</v>
+      </c>
+      <c r="E28" s="2">
+        <v>184</v>
+      </c>
+      <c r="F28" s="10">
+        <v>185</v>
+      </c>
+      <c r="G28" s="2">
+        <v>186</v>
+      </c>
+      <c r="H28" s="2">
+        <v>187</v>
+      </c>
+      <c r="I28" s="2">
+        <v>188</v>
+      </c>
+      <c r="J28" s="2">
+        <v>189</v>
+      </c>
+      <c r="K28" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" s="2">
+        <v>191</v>
+      </c>
+      <c r="M28" s="2">
+        <v>192</v>
+      </c>
+      <c r="N28" s="2">
+        <v>193</v>
+      </c>
+      <c r="O28" s="2">
+        <v>194</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -8739,21 +11782,51 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="A29" s="2">
+        <v>195</v>
+      </c>
+      <c r="B29" s="2">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2">
+        <v>197</v>
+      </c>
+      <c r="D29" s="2">
+        <v>198</v>
+      </c>
+      <c r="E29" s="2">
+        <v>199</v>
+      </c>
+      <c r="F29" s="2">
+        <v>200</v>
+      </c>
+      <c r="G29" s="2">
+        <v>201</v>
+      </c>
+      <c r="H29" s="2">
+        <v>202</v>
+      </c>
+      <c r="I29" s="2">
+        <v>203</v>
+      </c>
+      <c r="J29" s="2">
+        <v>204</v>
+      </c>
+      <c r="K29" s="2">
+        <v>205</v>
+      </c>
+      <c r="L29" s="2">
+        <v>206</v>
+      </c>
+      <c r="M29" s="2">
+        <v>207</v>
+      </c>
+      <c r="N29" s="2">
+        <v>208</v>
+      </c>
+      <c r="O29" s="2">
+        <v>209</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -8955,11 +12028,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DF0936-2813-41E6-8F84-53BF28A9C8C1}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="A22" zoomScale="70" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="20" width="6.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
@@ -10349,27 +13425,67 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2">
+        <v>19</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -10377,7 +13493,67 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>26</v>
+      </c>
+      <c r="H23" s="33">
+        <v>27</v>
+      </c>
+      <c r="I23" s="4">
+        <v>28</v>
+      </c>
+      <c r="J23" s="23">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2">
+        <v>31</v>
+      </c>
+      <c r="M23" s="2">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" s="2">
+        <v>39</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -10385,7 +13561,67 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46</v>
+      </c>
+      <c r="H24" s="31">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>48</v>
+      </c>
+      <c r="J24" s="7">
+        <v>49</v>
+      </c>
+      <c r="K24" s="7">
+        <v>50</v>
+      </c>
+      <c r="L24" s="7">
+        <v>51</v>
+      </c>
+      <c r="M24" s="31">
+        <v>52</v>
+      </c>
+      <c r="N24" s="5">
+        <v>53</v>
+      </c>
+      <c r="O24" s="2">
+        <v>54</v>
+      </c>
+      <c r="P24" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>56</v>
+      </c>
+      <c r="R24" s="2">
+        <v>57</v>
+      </c>
+      <c r="S24" s="2">
+        <v>58</v>
+      </c>
+      <c r="T24" s="2">
+        <v>59</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -10393,7 +13629,67 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2">
+        <v>65</v>
+      </c>
+      <c r="G25" s="2">
+        <v>66</v>
+      </c>
+      <c r="H25" s="9">
+        <v>67</v>
+      </c>
+      <c r="I25" s="2">
+        <v>68</v>
+      </c>
+      <c r="J25" s="2">
+        <v>69</v>
+      </c>
+      <c r="K25" s="2">
+        <v>70</v>
+      </c>
+      <c r="L25" s="2">
+        <v>71</v>
+      </c>
+      <c r="M25" s="9">
+        <v>72</v>
+      </c>
+      <c r="N25" s="2">
+        <v>73</v>
+      </c>
+      <c r="O25" s="2">
+        <v>74</v>
+      </c>
+      <c r="P25" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>76</v>
+      </c>
+      <c r="R25" s="2">
+        <v>77</v>
+      </c>
+      <c r="S25" s="2">
+        <v>78</v>
+      </c>
+      <c r="T25" s="2">
+        <v>79</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -10401,7 +13697,67 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2">
+        <v>81</v>
+      </c>
+      <c r="C26" s="33">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" s="2">
+        <v>86</v>
+      </c>
+      <c r="H26" s="9">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2">
+        <v>88</v>
+      </c>
+      <c r="J26" s="2">
+        <v>89</v>
+      </c>
+      <c r="K26" s="2">
+        <v>90</v>
+      </c>
+      <c r="L26" s="2">
+        <v>91</v>
+      </c>
+      <c r="M26" s="9">
+        <v>92</v>
+      </c>
+      <c r="N26" s="2">
+        <v>93</v>
+      </c>
+      <c r="O26" s="2">
+        <v>94</v>
+      </c>
+      <c r="P26" s="2">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>96</v>
+      </c>
+      <c r="R26" s="2">
+        <v>97</v>
+      </c>
+      <c r="S26" s="2">
+        <v>98</v>
+      </c>
+      <c r="T26" s="2">
+        <v>99</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -10409,7 +13765,67 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>100</v>
+      </c>
+      <c r="B27" s="32">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1">
+        <v>102</v>
+      </c>
+      <c r="D27" s="7">
+        <v>103</v>
+      </c>
+      <c r="E27" s="7">
+        <v>104</v>
+      </c>
+      <c r="F27" s="7">
+        <v>105</v>
+      </c>
+      <c r="G27" s="7">
+        <v>106</v>
+      </c>
+      <c r="H27" s="8">
+        <v>107</v>
+      </c>
+      <c r="I27" s="2">
+        <v>108</v>
+      </c>
+      <c r="J27" s="2">
+        <v>109</v>
+      </c>
+      <c r="K27" s="2">
+        <v>110</v>
+      </c>
+      <c r="L27" s="2">
+        <v>111</v>
+      </c>
+      <c r="M27" s="9">
+        <v>112</v>
+      </c>
+      <c r="N27" s="2">
+        <v>113</v>
+      </c>
+      <c r="O27" s="2">
+        <v>114</v>
+      </c>
+      <c r="P27" s="2">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>116</v>
+      </c>
+      <c r="R27" s="2">
+        <v>117</v>
+      </c>
+      <c r="S27" s="2">
+        <v>118</v>
+      </c>
+      <c r="T27" s="2">
+        <v>119</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -10417,7 +13833,67 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>120</v>
+      </c>
+      <c r="B28" s="34">
+        <v>121</v>
+      </c>
+      <c r="C28" s="9">
+        <v>122</v>
+      </c>
+      <c r="D28" s="2">
+        <v>123</v>
+      </c>
+      <c r="E28" s="2">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2">
+        <v>125</v>
+      </c>
+      <c r="G28" s="2">
+        <v>126</v>
+      </c>
+      <c r="H28" s="9">
+        <v>127</v>
+      </c>
+      <c r="I28" s="2">
+        <v>128</v>
+      </c>
+      <c r="J28" s="2">
+        <v>129</v>
+      </c>
+      <c r="K28" s="2">
+        <v>130</v>
+      </c>
+      <c r="L28" s="2">
+        <v>131</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132</v>
+      </c>
+      <c r="N28" s="2">
+        <v>133</v>
+      </c>
+      <c r="O28" s="2">
+        <v>134</v>
+      </c>
+      <c r="P28" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>136</v>
+      </c>
+      <c r="R28" s="2">
+        <v>137</v>
+      </c>
+      <c r="S28" s="2">
+        <v>138</v>
+      </c>
+      <c r="T28" s="2">
+        <v>139</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -10425,7 +13901,67 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>140</v>
+      </c>
+      <c r="B29" s="2">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2">
+        <v>145</v>
+      </c>
+      <c r="G29" s="2">
+        <v>146</v>
+      </c>
+      <c r="H29" s="10">
+        <v>147</v>
+      </c>
+      <c r="I29" s="2">
+        <v>148</v>
+      </c>
+      <c r="J29" s="2">
+        <v>149</v>
+      </c>
+      <c r="K29" s="2">
+        <v>150</v>
+      </c>
+      <c r="L29" s="2">
+        <v>151</v>
+      </c>
+      <c r="M29" s="9">
+        <v>152</v>
+      </c>
+      <c r="N29" s="2">
+        <v>153</v>
+      </c>
+      <c r="O29" s="2">
+        <v>154</v>
+      </c>
+      <c r="P29" s="33">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>156</v>
+      </c>
+      <c r="R29" s="2">
+        <v>157</v>
+      </c>
+      <c r="S29" s="2">
+        <v>158</v>
+      </c>
+      <c r="T29" s="2">
+        <v>159</v>
+      </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -10433,7 +13969,67 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>160</v>
+      </c>
+      <c r="B30" s="2">
+        <v>161</v>
+      </c>
+      <c r="C30" s="9">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2">
+        <v>164</v>
+      </c>
+      <c r="F30" s="33">
+        <v>165</v>
+      </c>
+      <c r="G30" s="2">
+        <v>166</v>
+      </c>
+      <c r="H30" s="2">
+        <v>167</v>
+      </c>
+      <c r="I30" s="2">
+        <v>168</v>
+      </c>
+      <c r="J30" s="2">
+        <v>169</v>
+      </c>
+      <c r="K30" s="2">
+        <v>170</v>
+      </c>
+      <c r="L30" s="2">
+        <v>171</v>
+      </c>
+      <c r="M30" s="9">
+        <v>172</v>
+      </c>
+      <c r="N30" s="2">
+        <v>173</v>
+      </c>
+      <c r="O30" s="2">
+        <v>174</v>
+      </c>
+      <c r="P30" s="35">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>176</v>
+      </c>
+      <c r="R30" s="2">
+        <v>177</v>
+      </c>
+      <c r="S30" s="2">
+        <v>178</v>
+      </c>
+      <c r="T30" s="2">
+        <v>179</v>
+      </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -10441,7 +14037,67 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>180</v>
+      </c>
+      <c r="B31" s="32">
+        <v>181</v>
+      </c>
+      <c r="C31" s="8">
+        <v>182</v>
+      </c>
+      <c r="D31" s="7">
+        <v>183</v>
+      </c>
+      <c r="E31" s="7">
+        <v>184</v>
+      </c>
+      <c r="F31" s="5">
+        <v>185</v>
+      </c>
+      <c r="G31" s="2">
+        <v>186</v>
+      </c>
+      <c r="H31" s="2">
+        <v>187</v>
+      </c>
+      <c r="I31" s="2">
+        <v>188</v>
+      </c>
+      <c r="J31" s="2">
+        <v>189</v>
+      </c>
+      <c r="K31" s="2">
+        <v>190</v>
+      </c>
+      <c r="L31" s="2">
+        <v>191</v>
+      </c>
+      <c r="M31" s="31">
+        <v>192</v>
+      </c>
+      <c r="N31" s="7">
+        <v>193</v>
+      </c>
+      <c r="O31" s="7">
+        <v>194</v>
+      </c>
+      <c r="P31" s="7">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>196</v>
+      </c>
+      <c r="R31" s="7">
+        <v>197</v>
+      </c>
+      <c r="S31" s="5">
+        <v>198</v>
+      </c>
+      <c r="T31" s="2">
+        <v>199</v>
+      </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -10449,7 +14105,67 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2">
+        <v>201</v>
+      </c>
+      <c r="C32" s="2">
+        <v>202</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203</v>
+      </c>
+      <c r="E32" s="2">
+        <v>204</v>
+      </c>
+      <c r="F32" s="9">
+        <v>205</v>
+      </c>
+      <c r="G32" s="2">
+        <v>206</v>
+      </c>
+      <c r="H32" s="2">
+        <v>207</v>
+      </c>
+      <c r="I32" s="2">
+        <v>208</v>
+      </c>
+      <c r="J32" s="2">
+        <v>209</v>
+      </c>
+      <c r="K32" s="2">
+        <v>210</v>
+      </c>
+      <c r="L32" s="2">
+        <v>211</v>
+      </c>
+      <c r="M32" s="10">
+        <v>212</v>
+      </c>
+      <c r="N32" s="2">
+        <v>213</v>
+      </c>
+      <c r="O32" s="2">
+        <v>214</v>
+      </c>
+      <c r="P32" s="9">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>216</v>
+      </c>
+      <c r="R32" s="2">
+        <v>217</v>
+      </c>
+      <c r="S32" s="2">
+        <v>218</v>
+      </c>
+      <c r="T32" s="2">
+        <v>219</v>
+      </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -10457,7 +14173,67 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>220</v>
+      </c>
+      <c r="B33" s="2">
+        <v>221</v>
+      </c>
+      <c r="C33" s="2">
+        <v>222</v>
+      </c>
+      <c r="D33" s="2">
+        <v>223</v>
+      </c>
+      <c r="E33" s="32">
+        <v>224</v>
+      </c>
+      <c r="F33" s="7">
+        <v>225</v>
+      </c>
+      <c r="G33" s="7">
+        <v>226</v>
+      </c>
+      <c r="H33" s="7">
+        <v>227</v>
+      </c>
+      <c r="I33" s="7">
+        <v>228</v>
+      </c>
+      <c r="J33" s="7">
+        <v>229</v>
+      </c>
+      <c r="K33" s="5">
+        <v>230</v>
+      </c>
+      <c r="L33" s="2">
+        <v>231</v>
+      </c>
+      <c r="M33" s="2">
+        <v>232</v>
+      </c>
+      <c r="N33" s="2">
+        <v>233</v>
+      </c>
+      <c r="O33" s="2">
+        <v>234</v>
+      </c>
+      <c r="P33" s="9">
+        <v>235</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>236</v>
+      </c>
+      <c r="R33" s="2">
+        <v>237</v>
+      </c>
+      <c r="S33" s="2">
+        <v>238</v>
+      </c>
+      <c r="T33" s="2">
+        <v>239</v>
+      </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -10466,6 +14242,66 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>240</v>
+      </c>
+      <c r="B34" s="2">
+        <v>241</v>
+      </c>
+      <c r="C34" s="2">
+        <v>242</v>
+      </c>
+      <c r="D34" s="2">
+        <v>243</v>
+      </c>
+      <c r="E34" s="2">
+        <v>244</v>
+      </c>
+      <c r="F34" s="9">
+        <v>245</v>
+      </c>
+      <c r="G34" s="2">
+        <v>246</v>
+      </c>
+      <c r="H34" s="2">
+        <v>247</v>
+      </c>
+      <c r="I34" s="2">
+        <v>248</v>
+      </c>
+      <c r="J34" s="2">
+        <v>249</v>
+      </c>
+      <c r="K34" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" s="2">
+        <v>251</v>
+      </c>
+      <c r="M34" s="2">
+        <v>252</v>
+      </c>
+      <c r="N34" s="2">
+        <v>253</v>
+      </c>
+      <c r="O34" s="2">
+        <v>254</v>
+      </c>
+      <c r="P34" s="9">
+        <v>255</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>256</v>
+      </c>
+      <c r="R34" s="2">
+        <v>257</v>
+      </c>
+      <c r="S34" s="2">
+        <v>258</v>
+      </c>
+      <c r="T34" s="2">
+        <v>259</v>
+      </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -10474,6 +14310,66 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>260</v>
+      </c>
+      <c r="B35" s="2">
+        <v>261</v>
+      </c>
+      <c r="C35" s="2">
+        <v>262</v>
+      </c>
+      <c r="D35" s="2">
+        <v>263</v>
+      </c>
+      <c r="E35" s="2">
+        <v>264</v>
+      </c>
+      <c r="F35" s="9">
+        <v>265</v>
+      </c>
+      <c r="G35" s="2">
+        <v>266</v>
+      </c>
+      <c r="H35" s="2">
+        <v>267</v>
+      </c>
+      <c r="I35" s="2">
+        <v>268</v>
+      </c>
+      <c r="J35" s="2">
+        <v>269</v>
+      </c>
+      <c r="K35" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" s="2">
+        <v>272</v>
+      </c>
+      <c r="N35" s="2">
+        <v>273</v>
+      </c>
+      <c r="O35" s="2">
+        <v>274</v>
+      </c>
+      <c r="P35" s="9">
+        <v>275</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>276</v>
+      </c>
+      <c r="R35" s="2">
+        <v>277</v>
+      </c>
+      <c r="S35" s="2">
+        <v>278</v>
+      </c>
+      <c r="T35" s="2">
+        <v>279</v>
+      </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -10481,13 +14377,365 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2">
+        <v>281</v>
+      </c>
+      <c r="C36" s="2">
+        <v>282</v>
+      </c>
+      <c r="D36" s="2">
+        <v>283</v>
+      </c>
+      <c r="E36" s="2">
+        <v>284</v>
+      </c>
+      <c r="F36" s="10">
+        <v>285</v>
+      </c>
+      <c r="G36" s="2">
+        <v>286</v>
+      </c>
+      <c r="H36" s="2">
+        <v>287</v>
+      </c>
+      <c r="I36" s="2">
+        <v>288</v>
+      </c>
+      <c r="J36" s="2">
+        <v>289</v>
+      </c>
+      <c r="K36" s="2">
+        <v>290</v>
+      </c>
+      <c r="L36" s="2">
+        <v>291</v>
+      </c>
+      <c r="M36" s="2">
+        <v>292</v>
+      </c>
+      <c r="N36" s="2">
+        <v>293</v>
+      </c>
+      <c r="O36" s="2">
+        <v>294</v>
+      </c>
+      <c r="P36" s="9">
+        <v>295</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>296</v>
+      </c>
+      <c r="R36" s="2">
+        <v>297</v>
+      </c>
+      <c r="S36" s="2">
+        <v>298</v>
+      </c>
+      <c r="T36" s="2">
+        <v>299</v>
+      </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>300</v>
+      </c>
+      <c r="B37" s="2">
+        <v>301</v>
+      </c>
+      <c r="C37" s="2">
+        <v>302</v>
+      </c>
+      <c r="D37" s="2">
+        <v>303</v>
+      </c>
+      <c r="E37" s="2">
+        <v>304</v>
+      </c>
+      <c r="F37" s="2">
+        <v>305</v>
+      </c>
+      <c r="G37" s="2">
+        <v>306</v>
+      </c>
+      <c r="H37" s="2">
+        <v>307</v>
+      </c>
+      <c r="I37" s="2">
+        <v>308</v>
+      </c>
+      <c r="J37" s="2">
+        <v>309</v>
+      </c>
+      <c r="K37" s="2">
+        <v>310</v>
+      </c>
+      <c r="L37" s="2">
+        <v>311</v>
+      </c>
+      <c r="M37" s="32">
+        <v>312</v>
+      </c>
+      <c r="N37" s="7">
+        <v>313</v>
+      </c>
+      <c r="O37" s="7">
+        <v>314</v>
+      </c>
+      <c r="P37" s="8">
+        <v>315</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>316</v>
+      </c>
+      <c r="R37" s="2">
+        <v>317</v>
+      </c>
+      <c r="S37" s="2">
+        <v>318</v>
+      </c>
+      <c r="T37" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>320</v>
+      </c>
+      <c r="B38" s="2">
+        <v>321</v>
+      </c>
+      <c r="C38" s="2">
+        <v>322</v>
+      </c>
+      <c r="D38" s="2">
+        <v>323</v>
+      </c>
+      <c r="E38" s="2">
+        <v>324</v>
+      </c>
+      <c r="F38" s="2">
+        <v>325</v>
+      </c>
+      <c r="G38" s="2">
+        <v>326</v>
+      </c>
+      <c r="H38" s="2">
+        <v>327</v>
+      </c>
+      <c r="I38" s="2">
+        <v>328</v>
+      </c>
+      <c r="J38" s="2">
+        <v>329</v>
+      </c>
+      <c r="K38" s="2">
+        <v>330</v>
+      </c>
+      <c r="L38" s="2">
+        <v>331</v>
+      </c>
+      <c r="M38" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" s="2">
+        <v>333</v>
+      </c>
+      <c r="O38" s="2">
+        <v>334</v>
+      </c>
+      <c r="P38" s="9">
+        <v>335</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>336</v>
+      </c>
+      <c r="R38" s="2">
+        <v>337</v>
+      </c>
+      <c r="S38" s="2">
+        <v>338</v>
+      </c>
+      <c r="T38" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>340</v>
+      </c>
+      <c r="B39" s="2">
+        <v>341</v>
+      </c>
+      <c r="C39" s="2">
+        <v>342</v>
+      </c>
+      <c r="D39" s="2">
+        <v>343</v>
+      </c>
+      <c r="E39" s="2">
+        <v>344</v>
+      </c>
+      <c r="F39" s="2">
+        <v>345</v>
+      </c>
+      <c r="G39" s="2">
+        <v>346</v>
+      </c>
+      <c r="H39" s="2">
+        <v>347</v>
+      </c>
+      <c r="I39" s="2">
+        <v>348</v>
+      </c>
+      <c r="J39" s="2">
+        <v>349</v>
+      </c>
+      <c r="K39" s="2">
+        <v>350</v>
+      </c>
+      <c r="L39" s="2">
+        <v>351</v>
+      </c>
+      <c r="M39" s="2">
+        <v>352</v>
+      </c>
+      <c r="N39" s="2">
+        <v>353</v>
+      </c>
+      <c r="O39" s="2">
+        <v>354</v>
+      </c>
+      <c r="P39" s="10">
+        <v>355</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>356</v>
+      </c>
+      <c r="R39" s="2">
+        <v>357</v>
+      </c>
+      <c r="S39" s="2">
+        <v>358</v>
+      </c>
+      <c r="T39" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>360</v>
+      </c>
+      <c r="B40" s="2">
+        <v>361</v>
+      </c>
+      <c r="C40" s="2">
+        <v>362</v>
+      </c>
+      <c r="D40" s="2">
+        <v>363</v>
+      </c>
+      <c r="E40" s="2">
+        <v>364</v>
+      </c>
+      <c r="F40" s="2">
+        <v>365</v>
+      </c>
+      <c r="G40" s="2">
+        <v>366</v>
+      </c>
+      <c r="H40" s="2">
+        <v>367</v>
+      </c>
+      <c r="I40" s="2">
+        <v>368</v>
+      </c>
+      <c r="J40" s="2">
+        <v>369</v>
+      </c>
+      <c r="K40" s="2">
+        <v>370</v>
+      </c>
+      <c r="L40" s="2">
+        <v>371</v>
+      </c>
+      <c r="M40" s="2">
+        <v>372</v>
+      </c>
+      <c r="N40" s="2">
+        <v>373</v>
+      </c>
+      <c r="O40" s="2">
+        <v>374</v>
+      </c>
+      <c r="P40" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>376</v>
+      </c>
+      <c r="R40" s="2">
+        <v>377</v>
+      </c>
+      <c r="S40" s="2">
+        <v>378</v>
+      </c>
+      <c r="T40" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -10628,15 +14876,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7603535F-09F8-42B0-95E3-5CF2DB572440}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:V1048576"/>
+    <sheetView topLeftCell="A17" zoomScale="78" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="5.42578125" customWidth="1"/>
+    <col min="1" max="22" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11975,328 +16223,1261 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <v>11</v>
+      </c>
+      <c r="M21" s="2">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13</v>
+      </c>
+      <c r="O21" s="2">
+        <v>14</v>
+      </c>
+      <c r="P21" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>16</v>
+      </c>
+      <c r="R21" s="2">
+        <v>17</v>
+      </c>
+      <c r="S21" s="2">
+        <v>18</v>
+      </c>
+      <c r="T21" s="2">
+        <v>19</v>
+      </c>
+      <c r="U21" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" s="2">
+        <v>21</v>
+      </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>23</v>
+      </c>
+      <c r="C22" s="31">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>25</v>
+      </c>
+      <c r="E22" s="7">
+        <v>26</v>
+      </c>
+      <c r="F22" s="7">
+        <v>27</v>
+      </c>
+      <c r="G22" s="31">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7">
+        <v>30</v>
+      </c>
+      <c r="J22" s="31">
+        <v>31</v>
+      </c>
+      <c r="K22" s="2">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2">
+        <v>33</v>
+      </c>
+      <c r="M22" s="2">
+        <v>34</v>
+      </c>
+      <c r="N22" s="2">
+        <v>35</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>38</v>
+      </c>
+      <c r="R22" s="2">
+        <v>39</v>
+      </c>
+      <c r="S22" s="2">
+        <v>40</v>
+      </c>
+      <c r="T22" s="2">
+        <v>41</v>
+      </c>
+      <c r="U22" s="2">
+        <v>42</v>
+      </c>
+      <c r="V22" s="2">
+        <v>43</v>
+      </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="A23" s="2">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2">
+        <v>49</v>
+      </c>
+      <c r="G23" s="9">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <v>51</v>
+      </c>
+      <c r="I23" s="2">
+        <v>52</v>
+      </c>
+      <c r="J23" s="9">
+        <v>53</v>
+      </c>
+      <c r="K23" s="2">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2">
+        <v>56</v>
+      </c>
+      <c r="N23" s="2">
+        <v>57</v>
+      </c>
+      <c r="O23" s="2">
+        <v>58</v>
+      </c>
+      <c r="P23" s="33">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>60</v>
+      </c>
+      <c r="R23" s="2">
+        <v>61</v>
+      </c>
+      <c r="S23" s="2">
+        <v>62</v>
+      </c>
+      <c r="T23" s="2">
+        <v>63</v>
+      </c>
+      <c r="U23" s="2">
+        <v>64</v>
+      </c>
+      <c r="V23" s="2">
+        <v>65</v>
+      </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2">
+        <v>67</v>
+      </c>
+      <c r="C24" s="9">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>70</v>
+      </c>
+      <c r="F24" s="2">
+        <v>71</v>
+      </c>
+      <c r="G24" s="9">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2">
+        <v>74</v>
+      </c>
+      <c r="J24" s="9">
+        <v>75</v>
+      </c>
+      <c r="K24" s="2">
+        <v>76</v>
+      </c>
+      <c r="L24" s="2">
+        <v>77</v>
+      </c>
+      <c r="M24" s="2">
+        <v>78</v>
+      </c>
+      <c r="N24" s="2">
+        <v>79</v>
+      </c>
+      <c r="O24" s="2">
+        <v>80</v>
+      </c>
+      <c r="P24" s="9">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>82</v>
+      </c>
+      <c r="R24" s="2">
+        <v>83</v>
+      </c>
+      <c r="S24" s="2">
+        <v>84</v>
+      </c>
+      <c r="T24" s="2">
+        <v>85</v>
+      </c>
+      <c r="U24" s="2">
+        <v>86</v>
+      </c>
+      <c r="V24" s="2">
+        <v>87</v>
+      </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2">
+        <v>89</v>
+      </c>
+      <c r="C25" s="9">
+        <v>90</v>
+      </c>
+      <c r="D25" s="2">
+        <v>91</v>
+      </c>
+      <c r="E25" s="2">
+        <v>92</v>
+      </c>
+      <c r="F25" s="2">
+        <v>93</v>
+      </c>
+      <c r="G25" s="9">
+        <v>94</v>
+      </c>
+      <c r="H25" s="2">
+        <v>95</v>
+      </c>
+      <c r="I25" s="2">
+        <v>96</v>
+      </c>
+      <c r="J25" s="31">
+        <v>97</v>
+      </c>
+      <c r="K25" s="7">
+        <v>98</v>
+      </c>
+      <c r="L25" s="7">
+        <v>99</v>
+      </c>
+      <c r="M25" s="7">
+        <v>100</v>
+      </c>
+      <c r="N25" s="7">
+        <v>101</v>
+      </c>
+      <c r="O25" s="7">
+        <v>102</v>
+      </c>
+      <c r="P25" s="8">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>104</v>
+      </c>
+      <c r="R25" s="2">
+        <v>105</v>
+      </c>
+      <c r="S25" s="2">
+        <v>106</v>
+      </c>
+      <c r="T25" s="2">
+        <v>107</v>
+      </c>
+      <c r="U25" s="2">
+        <v>108</v>
+      </c>
+      <c r="V25" s="2">
+        <v>109</v>
+      </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2">
+        <v>111</v>
+      </c>
+      <c r="C26" s="9">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2">
+        <v>114</v>
+      </c>
+      <c r="F26" s="2">
+        <v>115</v>
+      </c>
+      <c r="G26" s="36">
+        <v>116</v>
+      </c>
+      <c r="H26" s="2">
+        <v>117</v>
+      </c>
+      <c r="I26" s="2">
+        <v>118</v>
+      </c>
+      <c r="J26" s="9">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2">
+        <v>120</v>
+      </c>
+      <c r="L26" s="2">
+        <v>121</v>
+      </c>
+      <c r="M26" s="2">
+        <v>122</v>
+      </c>
+      <c r="N26" s="2">
+        <v>123</v>
+      </c>
+      <c r="O26" s="2">
+        <v>124</v>
+      </c>
+      <c r="P26" s="9">
+        <v>125</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>126</v>
+      </c>
+      <c r="R26" s="2">
+        <v>127</v>
+      </c>
+      <c r="S26" s="2">
+        <v>128</v>
+      </c>
+      <c r="T26" s="2">
+        <v>129</v>
+      </c>
+      <c r="U26" s="2">
+        <v>130</v>
+      </c>
+      <c r="V26" s="2">
+        <v>131</v>
+      </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>132</v>
+      </c>
+      <c r="B27" s="2">
+        <v>133</v>
+      </c>
+      <c r="C27" s="9">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2">
+        <v>136</v>
+      </c>
+      <c r="F27" s="2">
+        <v>137</v>
+      </c>
+      <c r="G27" s="2">
+        <v>138</v>
+      </c>
+      <c r="H27" s="33">
+        <v>139</v>
+      </c>
+      <c r="I27" s="2">
+        <v>140</v>
+      </c>
+      <c r="J27" s="31">
+        <v>141</v>
+      </c>
+      <c r="K27" s="7">
+        <v>142</v>
+      </c>
+      <c r="L27" s="7">
+        <v>143</v>
+      </c>
+      <c r="M27" s="31">
+        <v>144</v>
+      </c>
+      <c r="N27" s="5">
+        <v>145</v>
+      </c>
+      <c r="O27" s="2">
+        <v>146</v>
+      </c>
+      <c r="P27" s="9">
+        <v>147</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>148</v>
+      </c>
+      <c r="R27" s="2">
+        <v>149</v>
+      </c>
+      <c r="S27" s="2">
+        <v>150</v>
+      </c>
+      <c r="T27" s="2">
+        <v>151</v>
+      </c>
+      <c r="U27" s="2">
+        <v>152</v>
+      </c>
+      <c r="V27" s="2">
+        <v>153</v>
+      </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>154</v>
+      </c>
+      <c r="B28" s="32">
+        <v>155</v>
+      </c>
+      <c r="C28" s="8">
+        <v>156</v>
+      </c>
+      <c r="D28" s="31">
+        <v>157</v>
+      </c>
+      <c r="E28" s="7">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7">
+        <v>160</v>
+      </c>
+      <c r="H28" s="5">
+        <v>161</v>
+      </c>
+      <c r="I28" s="2">
+        <v>162</v>
+      </c>
+      <c r="J28" s="2">
+        <v>163</v>
+      </c>
+      <c r="K28" s="2">
+        <v>164</v>
+      </c>
+      <c r="L28" s="2">
+        <v>165</v>
+      </c>
+      <c r="M28" s="9">
+        <v>166</v>
+      </c>
+      <c r="N28" s="2">
+        <v>167</v>
+      </c>
+      <c r="O28" s="2">
+        <v>168</v>
+      </c>
+      <c r="P28" s="9">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>170</v>
+      </c>
+      <c r="R28" s="2">
+        <v>171</v>
+      </c>
+      <c r="S28" s="2">
+        <v>172</v>
+      </c>
+      <c r="T28" s="2">
+        <v>173</v>
+      </c>
+      <c r="U28" s="2">
+        <v>174</v>
+      </c>
+      <c r="V28" s="2">
+        <v>175</v>
+      </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>176</v>
+      </c>
+      <c r="B29" s="2">
+        <v>177</v>
+      </c>
+      <c r="C29" s="24">
+        <v>178</v>
+      </c>
+      <c r="D29" s="9">
+        <v>179</v>
+      </c>
+      <c r="E29" s="2">
+        <v>180</v>
+      </c>
+      <c r="F29" s="2">
+        <v>181</v>
+      </c>
+      <c r="G29" s="2">
+        <v>182</v>
+      </c>
+      <c r="H29" s="9">
+        <v>183</v>
+      </c>
+      <c r="I29" s="2">
+        <v>184</v>
+      </c>
+      <c r="J29" s="2">
+        <v>185</v>
+      </c>
+      <c r="K29" s="2">
+        <v>186</v>
+      </c>
+      <c r="L29" s="2">
+        <v>187</v>
+      </c>
+      <c r="M29" s="9">
+        <v>188</v>
+      </c>
+      <c r="N29" s="2">
+        <v>189</v>
+      </c>
+      <c r="O29" s="2">
+        <v>190</v>
+      </c>
+      <c r="P29" s="9">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>192</v>
+      </c>
+      <c r="R29" s="2">
+        <v>193</v>
+      </c>
+      <c r="S29" s="2">
+        <v>194</v>
+      </c>
+      <c r="T29" s="2">
+        <v>195</v>
+      </c>
+      <c r="U29" s="2">
+        <v>196</v>
+      </c>
+      <c r="V29" s="2">
+        <v>197</v>
+      </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="V30" s="2"/>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>198</v>
+      </c>
+      <c r="B30" s="2">
+        <v>199</v>
+      </c>
+      <c r="C30" s="2">
+        <v>200</v>
+      </c>
+      <c r="D30" s="9">
+        <v>201</v>
+      </c>
+      <c r="E30" s="2">
+        <v>202</v>
+      </c>
+      <c r="F30" s="2">
+        <v>203</v>
+      </c>
+      <c r="G30" s="2">
+        <v>204</v>
+      </c>
+      <c r="H30" s="9">
+        <v>205</v>
+      </c>
+      <c r="I30" s="2">
+        <v>206</v>
+      </c>
+      <c r="J30" s="2">
+        <v>207</v>
+      </c>
+      <c r="K30" s="2">
+        <v>208</v>
+      </c>
+      <c r="L30" s="2">
+        <v>209</v>
+      </c>
+      <c r="M30" s="9">
+        <v>210</v>
+      </c>
+      <c r="N30" s="2">
+        <v>211</v>
+      </c>
+      <c r="O30" s="32">
+        <v>212</v>
+      </c>
+      <c r="P30" s="8">
+        <v>213</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>214</v>
+      </c>
+      <c r="R30" s="7">
+        <v>215</v>
+      </c>
+      <c r="S30" s="7">
+        <v>216</v>
+      </c>
+      <c r="T30" s="7">
+        <v>217</v>
+      </c>
+      <c r="U30" s="5">
+        <v>218</v>
+      </c>
+      <c r="V30" s="2">
+        <v>219</v>
+      </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>220</v>
+      </c>
+      <c r="B31" s="2">
+        <v>221</v>
+      </c>
+      <c r="C31" s="2">
+        <v>222</v>
+      </c>
+      <c r="D31" s="9">
+        <v>223</v>
+      </c>
+      <c r="E31" s="2">
+        <v>224</v>
+      </c>
+      <c r="F31" s="2">
+        <v>225</v>
+      </c>
+      <c r="G31" s="2">
+        <v>226</v>
+      </c>
+      <c r="H31" s="9">
+        <v>227</v>
+      </c>
+      <c r="I31" s="2">
+        <v>228</v>
+      </c>
+      <c r="J31" s="2">
+        <v>229</v>
+      </c>
+      <c r="K31" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" s="2">
+        <v>231</v>
+      </c>
+      <c r="M31" s="10">
+        <v>232</v>
+      </c>
+      <c r="N31" s="2">
+        <v>233</v>
+      </c>
+      <c r="O31" s="9">
+        <v>234</v>
+      </c>
+      <c r="P31" s="2">
+        <v>235</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>236</v>
+      </c>
+      <c r="R31" s="2">
+        <v>237</v>
+      </c>
+      <c r="S31" s="2">
+        <v>238</v>
+      </c>
+      <c r="T31" s="2">
+        <v>239</v>
+      </c>
+      <c r="U31" s="2">
+        <v>240</v>
+      </c>
+      <c r="V31" s="2">
+        <v>241</v>
+      </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>242</v>
+      </c>
+      <c r="B32" s="2">
+        <v>243</v>
+      </c>
+      <c r="C32" s="2">
+        <v>244</v>
+      </c>
+      <c r="D32" s="9">
+        <v>245</v>
+      </c>
+      <c r="E32" s="2">
+        <v>246</v>
+      </c>
+      <c r="F32" s="2">
+        <v>247</v>
+      </c>
+      <c r="G32" s="2">
+        <v>248</v>
+      </c>
+      <c r="H32" s="10">
+        <v>249</v>
+      </c>
+      <c r="I32" s="2">
+        <v>250</v>
+      </c>
+      <c r="J32" s="2">
+        <v>251</v>
+      </c>
+      <c r="K32" s="2">
+        <v>252</v>
+      </c>
+      <c r="L32" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" s="2">
+        <v>254</v>
+      </c>
+      <c r="N32" s="2">
+        <v>255</v>
+      </c>
+      <c r="O32" s="9">
+        <v>256</v>
+      </c>
+      <c r="P32" s="2">
+        <v>257</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>258</v>
+      </c>
+      <c r="R32" s="2">
+        <v>259</v>
+      </c>
+      <c r="S32" s="2">
+        <v>260</v>
+      </c>
+      <c r="T32" s="2">
+        <v>261</v>
+      </c>
+      <c r="U32" s="2">
+        <v>262</v>
+      </c>
+      <c r="V32" s="2">
+        <v>263</v>
+      </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>264</v>
+      </c>
+      <c r="B33" s="2">
+        <v>265</v>
+      </c>
+      <c r="C33" s="2">
+        <v>266</v>
+      </c>
+      <c r="D33" s="10">
+        <v>267</v>
+      </c>
+      <c r="E33" s="2">
+        <v>268</v>
+      </c>
+      <c r="F33" s="2">
+        <v>269</v>
+      </c>
+      <c r="G33" s="2">
+        <v>270</v>
+      </c>
+      <c r="H33" s="2">
+        <v>271</v>
+      </c>
+      <c r="I33" s="2">
+        <v>272</v>
+      </c>
+      <c r="J33" s="2">
+        <v>273</v>
+      </c>
+      <c r="K33" s="2">
+        <v>274</v>
+      </c>
+      <c r="L33" s="2">
+        <v>275</v>
+      </c>
+      <c r="M33" s="32">
+        <v>276</v>
+      </c>
+      <c r="N33" s="7">
+        <v>277</v>
+      </c>
+      <c r="O33" s="8">
+        <v>278</v>
+      </c>
+      <c r="P33" s="7">
+        <v>279</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>280</v>
+      </c>
+      <c r="R33" s="7">
+        <v>281</v>
+      </c>
+      <c r="S33" s="5">
+        <v>282</v>
+      </c>
+      <c r="T33" s="2">
+        <v>283</v>
+      </c>
+      <c r="U33" s="2">
+        <v>284</v>
+      </c>
+      <c r="V33" s="2">
+        <v>285</v>
+      </c>
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
+      <c r="A34" s="2">
+        <v>286</v>
+      </c>
+      <c r="B34" s="2">
+        <v>287</v>
+      </c>
+      <c r="C34" s="2">
+        <v>288</v>
+      </c>
+      <c r="D34" s="2">
+        <v>289</v>
+      </c>
+      <c r="E34" s="2">
+        <v>290</v>
+      </c>
+      <c r="F34" s="2">
+        <v>291</v>
+      </c>
+      <c r="G34" s="2">
+        <v>292</v>
+      </c>
+      <c r="H34" s="2">
+        <v>293</v>
+      </c>
+      <c r="I34" s="2">
+        <v>294</v>
+      </c>
+      <c r="J34" s="2">
+        <v>295</v>
+      </c>
+      <c r="K34" s="2">
+        <v>296</v>
+      </c>
+      <c r="L34" s="2">
+        <v>297</v>
+      </c>
+      <c r="M34" s="2">
+        <v>298</v>
+      </c>
+      <c r="N34" s="2">
+        <v>299</v>
+      </c>
+      <c r="O34" s="9">
+        <v>300</v>
+      </c>
+      <c r="P34" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>302</v>
+      </c>
+      <c r="R34" s="2">
+        <v>303</v>
+      </c>
+      <c r="S34" s="2">
+        <v>304</v>
+      </c>
+      <c r="T34" s="2">
+        <v>305</v>
+      </c>
+      <c r="U34" s="2">
+        <v>306</v>
+      </c>
+      <c r="V34" s="2">
+        <v>307</v>
+      </c>
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+      <c r="A35" s="2">
+        <v>308</v>
+      </c>
+      <c r="B35" s="2">
+        <v>309</v>
+      </c>
+      <c r="C35" s="2">
+        <v>310</v>
+      </c>
+      <c r="D35" s="2">
+        <v>311</v>
+      </c>
+      <c r="E35" s="2">
+        <v>312</v>
+      </c>
+      <c r="F35" s="2">
+        <v>313</v>
+      </c>
+      <c r="G35" s="2">
+        <v>314</v>
+      </c>
+      <c r="H35" s="2">
+        <v>315</v>
+      </c>
+      <c r="I35" s="2">
+        <v>316</v>
+      </c>
+      <c r="J35" s="2">
+        <v>317</v>
+      </c>
+      <c r="K35" s="2">
+        <v>318</v>
+      </c>
+      <c r="L35" s="2">
+        <v>319</v>
+      </c>
+      <c r="M35" s="2">
+        <v>320</v>
+      </c>
+      <c r="N35" s="2">
+        <v>321</v>
+      </c>
+      <c r="O35" s="9">
+        <v>322</v>
+      </c>
+      <c r="P35" s="2">
+        <v>323</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>324</v>
+      </c>
+      <c r="R35" s="2">
+        <v>325</v>
+      </c>
+      <c r="S35" s="2">
+        <v>326</v>
+      </c>
+      <c r="T35" s="2">
+        <v>327</v>
+      </c>
+      <c r="U35" s="2">
+        <v>328</v>
+      </c>
+      <c r="V35" s="2">
+        <v>329</v>
+      </c>
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="A36" s="2">
+        <v>330</v>
+      </c>
+      <c r="B36" s="2">
+        <v>331</v>
+      </c>
+      <c r="C36" s="2">
+        <v>332</v>
+      </c>
+      <c r="D36" s="2">
+        <v>333</v>
+      </c>
+      <c r="E36" s="2">
+        <v>334</v>
+      </c>
+      <c r="F36" s="2">
+        <v>335</v>
+      </c>
+      <c r="G36" s="2">
+        <v>336</v>
+      </c>
+      <c r="H36" s="2">
+        <v>337</v>
+      </c>
+      <c r="I36" s="2">
+        <v>338</v>
+      </c>
+      <c r="J36" s="2">
+        <v>339</v>
+      </c>
+      <c r="K36" s="2">
+        <v>340</v>
+      </c>
+      <c r="L36" s="2">
+        <v>341</v>
+      </c>
+      <c r="M36" s="2">
+        <v>342</v>
+      </c>
+      <c r="N36" s="2">
+        <v>343</v>
+      </c>
+      <c r="O36" s="9">
+        <v>344</v>
+      </c>
+      <c r="P36" s="2">
+        <v>345</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>346</v>
+      </c>
+      <c r="R36" s="2">
+        <v>347</v>
+      </c>
+      <c r="S36" s="2">
+        <v>348</v>
+      </c>
+      <c r="T36" s="2">
+        <v>349</v>
+      </c>
+      <c r="U36" s="2">
+        <v>350</v>
+      </c>
+      <c r="V36" s="2">
+        <v>351</v>
+      </c>
       <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>352</v>
+      </c>
+      <c r="B37" s="2">
+        <v>353</v>
+      </c>
+      <c r="C37" s="2">
+        <v>354</v>
+      </c>
+      <c r="D37" s="2">
+        <v>355</v>
+      </c>
+      <c r="E37" s="2">
+        <v>356</v>
+      </c>
+      <c r="F37" s="2">
+        <v>357</v>
+      </c>
+      <c r="G37" s="2">
+        <v>358</v>
+      </c>
+      <c r="H37" s="2">
+        <v>359</v>
+      </c>
+      <c r="I37" s="2">
+        <v>360</v>
+      </c>
+      <c r="J37" s="2">
+        <v>361</v>
+      </c>
+      <c r="K37" s="2">
+        <v>362</v>
+      </c>
+      <c r="L37" s="2">
+        <v>363</v>
+      </c>
+      <c r="M37" s="2">
+        <v>364</v>
+      </c>
+      <c r="N37" s="2">
+        <v>365</v>
+      </c>
+      <c r="O37" s="10">
+        <v>366</v>
+      </c>
+      <c r="P37" s="2">
+        <v>367</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>368</v>
+      </c>
+      <c r="R37" s="2">
+        <v>369</v>
+      </c>
+      <c r="S37" s="2">
+        <v>370</v>
+      </c>
+      <c r="T37" s="2">
+        <v>371</v>
+      </c>
+      <c r="U37" s="2">
+        <v>372</v>
+      </c>
+      <c r="V37" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>374</v>
+      </c>
+      <c r="B38" s="2">
+        <v>375</v>
+      </c>
+      <c r="C38" s="2">
+        <v>376</v>
+      </c>
+      <c r="D38" s="2">
+        <v>377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>378</v>
+      </c>
+      <c r="F38" s="2">
+        <v>379</v>
+      </c>
+      <c r="G38" s="2">
+        <v>380</v>
+      </c>
+      <c r="H38" s="2">
+        <v>381</v>
+      </c>
+      <c r="I38" s="2">
+        <v>382</v>
+      </c>
+      <c r="J38" s="2">
+        <v>383</v>
+      </c>
+      <c r="K38" s="2">
+        <v>384</v>
+      </c>
+      <c r="L38" s="2">
+        <v>385</v>
+      </c>
+      <c r="M38" s="2">
+        <v>386</v>
+      </c>
+      <c r="N38" s="2">
+        <v>387</v>
+      </c>
+      <c r="O38" s="2">
+        <v>388</v>
+      </c>
+      <c r="P38" s="2">
+        <v>389</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>390</v>
+      </c>
+      <c r="R38" s="2">
+        <v>391</v>
+      </c>
+      <c r="S38" s="2">
+        <v>392</v>
+      </c>
+      <c r="T38" s="2">
+        <v>393</v>
+      </c>
+      <c r="U38" s="2">
+        <v>394</v>
+      </c>
+      <c r="V38" s="2">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D3768-38F2-427B-8AEB-15B6516FA71A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>